--- a/Financial Services/Moodys.xlsx
+++ b/Financial Services/Moodys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0CB469-7E1A-D94C-B958-A4710737A3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C5D2F9-FB99-BB45-8788-5FAC68702780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1008,6 +1008,7 @@
     <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1026,7 +1027,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2412,39 +2412,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>346.22</v>
+    <v>335.91</v>
     <v>230.16</v>
-    <v>1.2968999999999999</v>
-    <v>-4.2300000000000004</v>
-    <v>-1.3967E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.2952999999999999</v>
+    <v>-0.01</v>
+    <v>-3.269E-5</v>
+    <v>-0.21</v>
+    <v>-6.864000000000001E-4</v>
     <v>USD</v>
     <v>Moody's Corporation is a global integrated risk assessment company. The Company operates through two segments: Moody's Investors Service (MIS), and Moody's Analytics (MA). The MIS segment publishes credit ratings and provides assessment services on a range of debt obligations, programs and facilities, and the entities that issue such obligations in markets worldwide, including various corporate, financial institution and governmental obligations, and structured finance securities. The MIS segment consists of five lines of business, which include corporate finance group; structured finance group; financial institutions group; public, project and infrastructure finance, and MIS Other. The MA segment develops a range of products and services that support the risk management activities of institutional participants in global financial markets. The MA segment consists of three lines of business, such as decision solutions, research and insights, and data and information.</v>
-    <v>14426</v>
+    <v>14419</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>7 World Trade Ctr, NEW YORK, NY, 10007-2140 US</v>
-    <v>302.83999999999997</v>
+    <v>307.58999999999997</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45022.958333344533</v>
+    <v>45055.958333344533</v>
     <v>0</v>
-    <v>296.16000000000003</v>
-    <v>54727780000</v>
+    <v>304.10000000000002</v>
+    <v>56138155000</v>
     <v>MOODY'S CORPORATION</v>
     <v>MOODY'S CORPORATION</v>
-    <v>302.02</v>
-    <v>39.387</v>
-    <v>302.85000000000002</v>
-    <v>298.62</v>
-    <v>298.62</v>
-    <v>183269000</v>
+    <v>304.63</v>
+    <v>39.555399999999999</v>
+    <v>305.94</v>
+    <v>305.93</v>
+    <v>305.72000000000003</v>
+    <v>183500000</v>
     <v>MCO</v>
     <v>MOODY'S CORPORATION (XNYS:MCO)</v>
-    <v>564454</v>
-    <v>837019</v>
+    <v>584527</v>
+    <v>678784</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -3032,10 +3032,10 @@
   <dimension ref="A1:AJ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC115" sqref="AC115"/>
+      <selection pane="bottomRight" activeCell="AE89" sqref="AE89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4642,15 +4642,15 @@
       </c>
       <c r="AH16" s="30">
         <f>AI101/AA3</f>
-        <v>10.00873811265545</v>
+        <v>10.26667062911485</v>
       </c>
       <c r="AI16" s="30">
         <f>AI101/AA28</f>
-        <v>39.83098981077147</v>
+        <v>40.857463609898105</v>
       </c>
       <c r="AJ16" s="31">
         <f>AI101/AA106</f>
-        <v>37.12875169606513</v>
+        <v>38.085586838534603</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -10315,10 +10315,10 @@
       <c r="AA83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AH83" s="60" t="s">
+      <c r="AH83" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="AI83" s="61"/>
+      <c r="AI83" s="62"/>
     </row>
     <row r="84" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10402,10 +10402,10 @@
       <c r="AA84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AH84" s="62" t="s">
+      <c r="AH84" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="AI84" s="63"/>
+      <c r="AI84" s="64"/>
     </row>
     <row r="85" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11235,10 +11235,10 @@
       <c r="AA93" s="1">
         <v>-262000000</v>
       </c>
-      <c r="AH93" s="62" t="s">
+      <c r="AH93" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="AI93" s="63"/>
+      <c r="AI93" s="64"/>
     </row>
     <row r="94" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="AI95" s="55" cm="1">
         <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>1.2968999999999999</v>
+        <v>1.2952999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11595,7 +11595,7 @@
       </c>
       <c r="AI97" s="35">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>9.6781544999999997E-2</v>
+        <v>9.6712665000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -11680,10 +11680,10 @@
       <c r="AA98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AH98" s="62" t="s">
+      <c r="AH98" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="AI98" s="63"/>
+      <c r="AI98" s="64"/>
     </row>
     <row r="99" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11862,7 +11862,7 @@
       </c>
       <c r="AI100" s="33">
         <f>AI99/AI103</f>
-        <v>0.12562553142811131</v>
+        <v>0.12285715781223011</v>
       </c>
     </row>
     <row r="101" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11952,7 +11952,7 @@
       </c>
       <c r="AI101" s="48" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>54727780000</v>
+        <v>56138155000</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12042,7 +12042,7 @@
       </c>
       <c r="AI102" s="33">
         <f>AI101/AI103</f>
-        <v>0.87437446857188872</v>
+        <v>0.87714284218776994</v>
       </c>
     </row>
     <row r="103" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12132,7 +12132,7 @@
       </c>
       <c r="AI103" s="37">
         <f>AI99+AI101</f>
-        <v>62590780000</v>
+        <v>64001155000</v>
       </c>
     </row>
     <row r="104" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -12217,10 +12217,10 @@
       <c r="AA104" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AH104" s="62" t="s">
+      <c r="AH104" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="AI104" s="63"/>
+      <c r="AI104" s="64"/>
     </row>
     <row r="105" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -12338,7 +12338,7 @@
       </c>
       <c r="AI105" s="26">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>8.7504527069643484E-2</v>
+        <v>8.7648544440066367E-2</v>
       </c>
     </row>
     <row r="106" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -12488,7 +12488,7 @@
       <c r="AE107" s="38"/>
       <c r="AF107" s="41">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>36024234521.701027</v>
+        <v>35941421495.896797</v>
       </c>
       <c r="AG107" s="42" t="s">
         <v>147</v>
@@ -12519,7 +12519,7 @@
       </c>
       <c r="AF108" s="41">
         <f>AF107+AF106</f>
-        <v>38220993294.213074</v>
+        <v>38138180268.408844</v>
       </c>
       <c r="AG108" s="42" t="s">
         <v>143</v>
@@ -12529,14 +12529,14 @@
       </c>
       <c r="AI108" s="46">
         <f>AI105</f>
-        <v>8.7504527069643484E-2</v>
+        <v>8.7648544440066367E-2</v>
       </c>
     </row>
     <row r="109" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB109" s="58" t="s">
+      <c r="AB109" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="AC109" s="59"/>
+      <c r="AC109" s="60"/>
     </row>
     <row r="110" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="AB110" s="47" t="s">
@@ -12544,7 +12544,7 @@
       </c>
       <c r="AC110" s="48">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>30963499222.336521</v>
+        <v>30890533000.728603</v>
       </c>
     </row>
     <row r="111" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="AC113" s="48">
         <f>AC110+AC111-AC112</f>
-        <v>24959499222.336521</v>
+        <v>24886533000.728603</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12587,9 +12587,9 @@
       <c r="AB115" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="AC115" s="64">
+      <c r="AC115" s="58">
         <f>AC113/AC114</f>
-        <v>137.33486258013255</v>
+        <v>136.93337992504198</v>
       </c>
     </row>
     <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12598,7 +12598,7 @@
       </c>
       <c r="AC116" s="57" cm="1">
         <f t="array" ref="AC116">_FV(A1,"Price")</f>
-        <v>298.62</v>
+        <v>305.93</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12607,7 +12607,7 @@
       </c>
       <c r="AC117" s="52">
         <f>AC115/AC116-1</f>
-        <v>-0.54010159205635078</v>
+        <v>-0.55240290286980032</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">

--- a/Financial Services/Moodys.xlsx
+++ b/Financial Services/Moodys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C5D2F9-FB99-BB45-8788-5FAC68702780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8289390C-CEC4-0447-B52B-6333F1FDCE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2414,11 +2414,11 @@
     <v>Powered by Refinitiv</v>
     <v>335.91</v>
     <v>230.16</v>
-    <v>1.2952999999999999</v>
-    <v>-0.01</v>
-    <v>-3.269E-5</v>
-    <v>-0.21</v>
-    <v>-6.864000000000001E-4</v>
+    <v>1.2939000000000001</v>
+    <v>0.54</v>
+    <v>1.725E-3</v>
+    <v>4.1100000000000003</v>
+    <v>1.3108E-2</v>
     <v>USD</v>
     <v>Moody's Corporation is a global integrated risk assessment company. The Company operates through two segments: Moody's Investors Service (MIS), and Moody's Analytics (MA). The MIS segment publishes credit ratings and provides assessment services on a range of debt obligations, programs and facilities, and the entities that issue such obligations in markets worldwide, including various corporate, financial institution and governmental obligations, and structured finance securities. The MIS segment consists of five lines of business, which include corporate finance group; structured finance group; financial institutions group; public, project and infrastructure finance, and MIS Other. The MA segment develops a range of products and services that support the risk management activities of institutional participants in global financial markets. The MA segment consists of three lines of business, such as decision solutions, research and insights, and data and information.</v>
     <v>14419</v>
@@ -2426,25 +2426,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>7 World Trade Ctr, NEW YORK, NY, 10007-2140 US</v>
-    <v>307.58999999999997</v>
+    <v>319.62</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45055.958333344533</v>
+    <v>45076.958333344533</v>
     <v>0</v>
-    <v>304.10000000000002</v>
-    <v>56138155000</v>
+    <v>312.97500000000002</v>
+    <v>57534590000</v>
     <v>MOODY'S CORPORATION</v>
     <v>MOODY'S CORPORATION</v>
-    <v>304.63</v>
-    <v>39.555399999999999</v>
-    <v>305.94</v>
-    <v>305.93</v>
-    <v>305.72000000000003</v>
+    <v>315.24</v>
+    <v>40.468200000000003</v>
+    <v>313</v>
+    <v>313.54000000000002</v>
+    <v>317.64999999999998</v>
     <v>183500000</v>
     <v>MCO</v>
     <v>MOODY'S CORPORATION (XNYS:MCO)</v>
-    <v>584527</v>
-    <v>678784</v>
+    <v>697968</v>
+    <v>734162</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -3032,10 +3032,10 @@
   <dimension ref="A1:AJ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE89" sqref="AE89"/>
+      <selection pane="bottomRight" activeCell="AC99" sqref="AC99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4642,15 +4642,15 @@
       </c>
       <c r="AH16" s="30">
         <f>AI101/AA3</f>
-        <v>10.26667062911485</v>
+        <v>10.522053767373812</v>
       </c>
       <c r="AI16" s="30">
         <f>AI101/AA28</f>
-        <v>40.857463609898105</v>
+        <v>41.873791848617174</v>
       </c>
       <c r="AJ16" s="31">
         <f>AI101/AA106</f>
-        <v>38.085586838534603</v>
+        <v>39.032964721845318</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="AI95" s="55" cm="1">
         <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>1.2952999999999999</v>
+        <v>1.2939000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11595,7 +11595,7 @@
       </c>
       <c r="AI97" s="35">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>9.6712665000000003E-2</v>
+        <v>9.6652395000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -11862,7 +11862,7 @@
       </c>
       <c r="AI100" s="33">
         <f>AI99/AI103</f>
-        <v>0.12285715781223011</v>
+        <v>0.12023378843165322</v>
       </c>
     </row>
     <row r="101" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11952,7 +11952,7 @@
       </c>
       <c r="AI101" s="48" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>56138155000</v>
+        <v>57534590000</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12042,7 +12042,7 @@
       </c>
       <c r="AI102" s="33">
         <f>AI101/AI103</f>
-        <v>0.87714284218776994</v>
+        <v>0.87976621156834678</v>
       </c>
     </row>
     <row r="103" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12132,7 +12132,7 @@
       </c>
       <c r="AI103" s="37">
         <f>AI99+AI101</f>
-        <v>64001155000</v>
+        <v>65397590000</v>
       </c>
     </row>
     <row r="104" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -12338,7 +12338,7 @@
       </c>
       <c r="AI105" s="26">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>8.7648544440066367E-2</v>
+        <v>8.7789067132948637E-2</v>
       </c>
     </row>
     <row r="106" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -12488,7 +12488,7 @@
       <c r="AE107" s="38"/>
       <c r="AF107" s="41">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>35941421495.896797</v>
+        <v>35860984159.187752</v>
       </c>
       <c r="AG107" s="42" t="s">
         <v>147</v>
@@ -12519,7 +12519,7 @@
       </c>
       <c r="AF108" s="41">
         <f>AF107+AF106</f>
-        <v>38138180268.408844</v>
+        <v>38057742931.699799</v>
       </c>
       <c r="AG108" s="42" t="s">
         <v>143</v>
@@ -12529,7 +12529,7 @@
       </c>
       <c r="AI108" s="46">
         <f>AI105</f>
-        <v>8.7648544440066367E-2</v>
+        <v>8.7789067132948637E-2</v>
       </c>
     </row>
     <row r="109" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -12544,7 +12544,7 @@
       </c>
       <c r="AC110" s="48">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>30890533000.728603</v>
+        <v>30819660898.170986</v>
       </c>
     </row>
     <row r="111" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="AC113" s="48">
         <f>AC110+AC111-AC112</f>
-        <v>24886533000.728603</v>
+        <v>24815660898.170986</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12589,7 +12589,7 @@
       </c>
       <c r="AC115" s="58">
         <f>AC113/AC114</f>
-        <v>136.93337992504198</v>
+        <v>136.54341975882178</v>
       </c>
     </row>
     <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12598,7 +12598,7 @@
       </c>
       <c r="AC116" s="57" cm="1">
         <f t="array" ref="AC116">_FV(A1,"Price")</f>
-        <v>305.93</v>
+        <v>313.54000000000002</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12607,7 +12607,7 @@
       </c>
       <c r="AC117" s="52">
         <f>AC115/AC116-1</f>
-        <v>-0.55240290286980032</v>
+        <v>-0.56451036627281437</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">

--- a/Financial Services/Moodys.xlsx
+++ b/Financial Services/Moodys.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8289390C-CEC4-0447-B52B-6333F1FDCE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241386AF-46E4-F447-82C5-0376644BE6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +544,50 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -888,12 +914,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -971,7 +1006,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1026,6 +1060,29 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1410,11 +1467,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106:$B$106</c:f>
+              <c:f>'Sheet 1'!$A$107:$B$107</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>- -</c:v>
@@ -1457,7 +1514,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$106:$AA$106</c:f>
+              <c:f>'Sheet 1'!$C$107:$AA$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2292,6 +2349,66 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7280000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -2412,13 +2529,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>335.91</v>
+    <v>351.06</v>
     <v>230.16</v>
-    <v>1.2939000000000001</v>
-    <v>0.54</v>
-    <v>1.725E-3</v>
-    <v>4.1100000000000003</v>
-    <v>1.3108E-2</v>
+    <v>1.2992999999999999</v>
+    <v>-6.46</v>
+    <v>-1.8547000000000001E-2</v>
+    <v>4.6500000000000004</v>
+    <v>1.3602000000000001E-2</v>
     <v>USD</v>
     <v>Moody's Corporation is a global integrated risk assessment company. The Company operates through two segments: Moody's Investors Service (MIS), and Moody's Analytics (MA). The MIS segment publishes credit ratings and provides assessment services on a range of debt obligations, programs and facilities, and the entities that issue such obligations in markets worldwide, including various corporate, financial institution and governmental obligations, and structured finance securities. The MIS segment consists of five lines of business, which include corporate finance group; structured finance group; financial institutions group; public, project and infrastructure finance, and MIS Other. The MA segment develops a range of products and services that support the risk management activities of institutional participants in global financial markets. The MA segment consists of three lines of business, such as decision solutions, research and insights, and data and information.</v>
     <v>14419</v>
@@ -2426,25 +2543,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>7 World Trade Ctr, NEW YORK, NY, 10007-2140 US</v>
-    <v>319.62</v>
+    <v>351.06</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45076.958333344533</v>
+    <v>45093.977176805471</v>
     <v>0</v>
-    <v>312.97500000000002</v>
-    <v>57534590000</v>
+    <v>341.76</v>
+    <v>62729475000</v>
     <v>MOODY'S CORPORATION</v>
     <v>MOODY'S CORPORATION</v>
-    <v>315.24</v>
-    <v>40.468200000000003</v>
-    <v>313</v>
-    <v>313.54000000000002</v>
-    <v>317.64999999999998</v>
+    <v>350.39</v>
+    <v>45.033499999999997</v>
+    <v>348.31</v>
+    <v>341.85</v>
+    <v>346.5</v>
     <v>183500000</v>
     <v>MCO</v>
     <v>MOODY'S CORPORATION (XNYS:MCO)</v>
-    <v>697968</v>
-    <v>734162</v>
+    <v>1243316</v>
+    <v>805736</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -3032,10 +3149,10 @@
   <dimension ref="A1:AJ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC99" sqref="AC99"/>
+      <selection pane="bottomRight" activeCell="AE88" sqref="AE88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3148,91 +3265,91 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
@@ -3246,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1">
         <v>1934500000</v>
@@ -3324,36 +3441,36 @@
         <v>5468000000</v>
       </c>
       <c r="AB3" s="28">
-        <v>5867000000</v>
+        <v>5898000000</v>
       </c>
       <c r="AC3" s="28">
-        <v>6491000000</v>
+        <v>6482000000</v>
       </c>
       <c r="AD3" s="28">
-        <v>7119000000</v>
+        <v>7103000000</v>
       </c>
       <c r="AE3" s="28">
-        <v>7596000000</v>
+        <v>7515000000</v>
       </c>
       <c r="AF3" s="28">
-        <v>8145000000</v>
+        <v>8099000000</v>
       </c>
       <c r="AG3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AJ3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AI3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15" t="e">
@@ -3458,23 +3575,23 @@
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="2"/>
-        <v>7.2970007315289021E-2</v>
+        <v>7.8639356254571968E-2</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="2"/>
-        <v>0.10635759331856143</v>
+        <v>9.9016615801966745E-2</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="2"/>
-        <v>9.6749345247265417E-2</v>
+        <v>9.5803764270286917E-2</v>
       </c>
       <c r="AE4" s="16">
         <f t="shared" si="2"/>
-        <v>6.7003792667509554E-2</v>
+        <v>5.8003660425172354E-2</v>
       </c>
       <c r="AF4" s="16">
         <f t="shared" si="2"/>
-        <v>7.2274881516587675E-2</v>
+        <v>7.7711244178310102E-2</v>
       </c>
       <c r="AG4" s="17">
         <f>(AA4+Z4+Y4)/3</f>
@@ -3489,7 +3606,7 @@
         <v>3.8722390327945631E-2</v>
       </c>
       <c r="AJ4" s="17">
-        <f>(AA105+Z105+Y105)/3</f>
+        <f>(AA106+Z106+Y106)/3</f>
         <v>-8.2025723884268462E-3</v>
       </c>
     </row>
@@ -3498,7 +3615,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1">
         <v>568200000</v>
@@ -3581,7 +3698,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="10">
         <v>1366300000</v>
@@ -3659,16 +3776,16 @@
         <v>3855000000</v>
       </c>
       <c r="AG6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AH6" s="19" t="s">
+      <c r="AJ6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AI6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -3676,7 +3793,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2">
         <v>0.70630000000000004</v>
@@ -3766,7 +3883,7 @@
         <v>0.25130000000000002</v>
       </c>
       <c r="AJ7" s="20">
-        <f>AA106/AA3</f>
+        <f>AA107/AA3</f>
         <v>0.26956839795171911</v>
       </c>
     </row>
@@ -3855,7 +3972,7 @@
     </row>
     <row r="9" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -3962,16 +4079,16 @@
         <v>0</v>
       </c>
       <c r="AG9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AH9" s="19" t="s">
+      <c r="AI9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AI9" s="19" t="s">
+      <c r="AJ9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AJ9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -3979,7 +4096,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1">
         <v>776000000</v>
@@ -3994,67 +4111,67 @@
         <v>141600000</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG10" s="17">
         <f>AA9</f>
@@ -4066,11 +4183,11 @@
       </c>
       <c r="AI10" s="20">
         <f>AA80</f>
-        <v>3.2004389173372345E-2</v>
+        <v>3.0907095830285298E-2</v>
       </c>
       <c r="AJ10" s="20">
         <f>AA89</f>
-        <v>0</v>
+        <v>5.1755669348939284E-2</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -4078,82 +4195,82 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -4161,7 +4278,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1">
         <v>776000000</v>
@@ -4239,21 +4356,21 @@
         <v>1527000000</v>
       </c>
       <c r="AG12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AH12" s="19" t="s">
+      <c r="AJ12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AI12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
@@ -4381,7 +4498,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1">
         <v>141600000</v>
@@ -4456,7 +4573,7 @@
         <v>257000000</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -4464,7 +4581,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1">
         <v>917600000</v>
@@ -4542,16 +4659,16 @@
         <v>1527000000</v>
       </c>
       <c r="AG15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AH15" s="19" t="s">
+      <c r="AJ15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AI15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -4559,7 +4676,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1">
         <v>1485800000</v>
@@ -4642,56 +4759,56 @@
       </c>
       <c r="AH16" s="30">
         <f>AI101/AA3</f>
-        <v>10.522053767373812</v>
+        <v>11.472105888807608</v>
       </c>
       <c r="AI16" s="30">
         <f>AI101/AA28</f>
-        <v>41.873791848617174</v>
+        <v>45.654639737991268</v>
       </c>
       <c r="AJ16" s="31">
-        <f>AI101/AA106</f>
-        <v>39.032964721845318</v>
+        <f>AI101/AA107</f>
+        <v>42.557310040705566</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1">
         <v>35900000</v>
@@ -4736,12 +4853,12 @@
         <v>231000000</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1">
         <v>141600000</v>
@@ -4816,18 +4933,27 @@
         <v>257000000</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG18" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
+      </c>
+      <c r="AH18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ18" s="19" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="10">
         <v>575100000</v>
@@ -4904,14 +5030,41 @@
       <c r="AA19" s="10">
         <v>1883000000</v>
       </c>
-      <c r="AG19" s="54">
+      <c r="AB19" s="65">
+        <v>2601000000</v>
+      </c>
+      <c r="AC19" s="65">
+        <v>3007000000</v>
+      </c>
+      <c r="AD19" s="65">
+        <v>3400000000</v>
+      </c>
+      <c r="AE19" s="65">
+        <v>3640000000</v>
+      </c>
+      <c r="AF19" s="65">
+        <v>3997000000</v>
+      </c>
+      <c r="AG19" s="53">
         <f>AA40-AA56-AA61</f>
         <v>-6004000000</v>
       </c>
+      <c r="AH19" s="73">
+        <f>AI101/AB3</f>
+        <v>10.63571973550356</v>
+      </c>
+      <c r="AI19" s="73">
+        <f>AI101/AB28</f>
+        <v>34.946782729805015</v>
+      </c>
+      <c r="AJ19" s="74">
+        <f>AI101/AB106</f>
+        <v>34.055089576547232</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15" t="e">
@@ -5014,13 +5167,33 @@
         <f t="shared" ref="AA20" si="12">(AA19/Z19)-1</f>
         <v>-0.41394335511982572</v>
       </c>
+      <c r="AB20" s="66">
+        <f t="shared" ref="AB20" si="13">(AB19/AA19)-1</f>
+        <v>0.38130642591609143</v>
+      </c>
+      <c r="AC20" s="66">
+        <f t="shared" ref="AC20" si="14">(AC19/AB19)-1</f>
+        <v>0.1560938100730489</v>
+      </c>
+      <c r="AD20" s="66">
+        <f t="shared" ref="AD20" si="15">(AD19/AC19)-1</f>
+        <v>0.13069504489524442</v>
+      </c>
+      <c r="AE20" s="66">
+        <f t="shared" ref="AE20" si="16">(AE19/AD19)-1</f>
+        <v>7.0588235294117618E-2</v>
+      </c>
+      <c r="AF20" s="66">
+        <f t="shared" ref="AF20" si="17">(AF19/AE19)-1</f>
+        <v>9.8076923076923173E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2">
         <v>0.29730000000000001</v>
@@ -5097,13 +5270,39 @@
       <c r="AA21" s="2">
         <v>0.34439999999999998</v>
       </c>
+      <c r="AB21" s="67">
+        <f>AB19/AB3</f>
+        <v>0.4409969481180061</v>
+      </c>
+      <c r="AC21" s="67">
+        <f t="shared" ref="AC21:AF21" si="18">AC19/AC3</f>
+        <v>0.46390003085467446</v>
+      </c>
+      <c r="AD21" s="67">
+        <f t="shared" si="18"/>
+        <v>0.47867098409122905</v>
+      </c>
+      <c r="AE21" s="67">
+        <f t="shared" si="18"/>
+        <v>0.48436460412508314</v>
+      </c>
+      <c r="AF21" s="67">
+        <f t="shared" si="18"/>
+        <v>0.49351771823681934</v>
+      </c>
+      <c r="AI21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ21" s="19" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="10">
         <v>448700000</v>
@@ -5180,13 +5379,21 @@
       <c r="AA22" s="10">
         <v>1883000000</v>
       </c>
+      <c r="AI22" s="75">
+        <f>(-1*AA98)/AI101</f>
+        <v>8.2098566901763481E-3</v>
+      </c>
+      <c r="AJ22" s="76">
+        <f>AA107/AI101</f>
+        <v>2.3497725750135801E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2">
         <v>0.2319</v>
@@ -5264,12 +5471,12 @@
         <v>0.34439999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1">
         <v>-48900000</v>
@@ -5347,12 +5554,12 @@
         <v>-123000000</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="10">
         <v>399800000</v>
@@ -5430,12 +5637,12 @@
         <v>1760000000</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2">
         <v>0.20669999999999999</v>
@@ -5513,12 +5720,12 @@
         <v>0.32190000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1">
         <v>153400000</v>
@@ -5596,12 +5803,12 @@
         <v>386000000</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="11">
         <v>280100000</v>
@@ -5678,10 +5885,25 @@
       <c r="AA28" s="11">
         <v>1374000000</v>
       </c>
+      <c r="AB28" s="68">
+        <v>1795000000</v>
+      </c>
+      <c r="AC28" s="68">
+        <v>2028000000</v>
+      </c>
+      <c r="AD28" s="68">
+        <v>2280000000</v>
+      </c>
+      <c r="AE28" s="68">
+        <v>2504000000</v>
+      </c>
+      <c r="AF28" s="68">
+        <v>2797000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15" t="e">
@@ -5697,100 +5919,120 @@
         <v>-0.380859375</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:T29" si="13">(F28/E28)-1</f>
+        <f t="shared" ref="F29:T29" si="19">(F28/E28)-1</f>
         <v>0.33880126182965298</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.3614514608859567</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.25960539979231578</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.16817807089859849</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.31921900729240171</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.34432952924393723</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-6.950523942167397E-2</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-0.34768353528153961</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-0.12150349650349646</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.26318407960198997</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.12524615990547461</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.20756037801890104</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.16594202898550714</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.22896208825357367</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-4.7941741680995298E-2</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" ref="U29" si="14">(U28/T28)-1</f>
+        <f t="shared" ref="U29" si="20">(U28/T28)-1</f>
         <v>-0.71677467332412625</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" ref="V29" si="15">(V28/U28)-1</f>
+        <f t="shared" ref="V29" si="21">(V28/U28)-1</f>
         <v>2.7531882970742685</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" ref="W29" si="16">(W28/V28)-1</f>
+        <f t="shared" ref="W29" si="22">(W28/V28)-1</f>
         <v>0.30881471117329595</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" ref="X29" si="17">(X28/W28)-1</f>
+        <f t="shared" ref="X29" si="23">(X28/W28)-1</f>
         <v>8.5827733659132655E-2</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" ref="Y29" si="18">(Y28/X28)-1</f>
+        <f t="shared" ref="Y29" si="24">(Y28/X28)-1</f>
         <v>0.25035161744022494</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" ref="Z29" si="19">(Z28/Y28)-1</f>
+        <f t="shared" ref="Z29" si="25">(Z28/Y28)-1</f>
         <v>0.24521934758155228</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" ref="AA29" si="20">(AA28/Z28)-1</f>
+        <f t="shared" ref="AA29" si="26">(AA28/Z28)-1</f>
         <v>-0.37940379403794033</v>
       </c>
+      <c r="AB29" s="16">
+        <f t="shared" ref="AB29" si="27">(AB28/AA28)-1</f>
+        <v>0.30640465793304217</v>
+      </c>
+      <c r="AC29" s="16">
+        <f t="shared" ref="AC29" si="28">(AC28/AB28)-1</f>
+        <v>0.1298050139275766</v>
+      </c>
+      <c r="AD29" s="16">
+        <f t="shared" ref="AD29" si="29">(AD28/AC28)-1</f>
+        <v>0.12426035502958577</v>
+      </c>
+      <c r="AE29" s="16">
+        <f t="shared" ref="AE29" si="30">(AE28/AD28)-1</f>
+        <v>9.8245614035087803E-2</v>
+      </c>
+      <c r="AF29" s="16">
+        <f t="shared" ref="AF29" si="31">(AF28/AE28)-1</f>
+        <v>0.11701277955271561</v>
+      </c>
     </row>
-    <row r="30" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2">
         <v>0.14480000000000001</v>
@@ -5867,13 +6109,33 @@
       <c r="AA30" s="2">
         <v>0.25130000000000002</v>
       </c>
+      <c r="AB30" s="69">
+        <f>AB28/AB3</f>
+        <v>0.30434045439131907</v>
+      </c>
+      <c r="AC30" s="69">
+        <f t="shared" ref="AC30:AF30" si="32">AC28/AC3</f>
+        <v>0.31286639925948784</v>
+      </c>
+      <c r="AD30" s="69">
+        <f t="shared" si="32"/>
+        <v>0.32099113050823597</v>
+      </c>
+      <c r="AE30" s="69">
+        <f t="shared" si="32"/>
+        <v>0.33320026613439785</v>
+      </c>
+      <c r="AF30" s="69">
+        <f t="shared" si="32"/>
+        <v>0.3453512779355476</v>
+      </c>
     </row>
-    <row r="31" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="12">
         <v>0.82</v>
@@ -5950,13 +6212,28 @@
       <c r="AA31" s="12">
         <v>7.37</v>
       </c>
+      <c r="AB31" s="70">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="AC31" s="70">
+        <v>11.05</v>
+      </c>
+      <c r="AD31" s="70">
+        <v>12.42</v>
+      </c>
+      <c r="AE31" s="70">
+        <v>13.65</v>
+      </c>
+      <c r="AF31" s="70">
+        <v>15.24</v>
+      </c>
     </row>
-    <row r="32" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="12">
         <v>0.81</v>
@@ -6039,7 +6316,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1">
         <v>338984000</v>
@@ -6122,7 +6399,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1">
         <v>343406000</v>
@@ -6202,7 +6479,7 @@
     </row>
     <row r="35" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22" t="e">
@@ -6210,99 +6487,99 @@
         <v>#VALUE!</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:T35" si="21">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:T35" si="33">(D34-C34)/C34</f>
         <v>-4.320833066399539E-2</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>-7.8157337293954365E-3</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>-1.7177914110429449E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>-1.6853932584269662E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>-3.3015873015873019E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>3.2829940906106371E-3</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>-4.4829842931937175E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>-6.7488866050017124E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>-9.8824393828067597E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>-3.0574806359559722E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>-5.0462573591253156E-3</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>-3.0431107354184278E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>-1.2205754141238012E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>-1.3680494263018535E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>-3.9373601789709174E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>-5.2631578947368418E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" ref="U35" si="22">(U34-T34)/T34</f>
+        <f t="shared" ref="U35" si="34">(U34-T34)/T34</f>
         <v>-3.9331366764995081E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" ref="V35" si="23">(V34-U34)/U34</f>
+        <f t="shared" ref="V35" si="35">(V34-U34)/U34</f>
         <v>-6.1412487205731829E-3</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" ref="W35" si="24">(W34-V34)/V34</f>
+        <f t="shared" ref="W35" si="36">(W34-V34)/V34</f>
         <v>1.0298661174047373E-3</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" ref="X35" si="25">(X34-W34)/W34</f>
+        <f t="shared" ref="X35" si="37">(X34-W34)/W34</f>
         <v>-1.4403292181069959E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" ref="Y35" si="26">(Y34-X34)/X34</f>
+        <f t="shared" ref="Y35" si="38">(Y34-X34)/X34</f>
         <v>-1.2004175365344467E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" ref="Z35" si="27">(Z34-Y34)/Y34</f>
+        <f t="shared" ref="Z35" si="39">(Z34-Y34)/Y34</f>
         <v>-7.3956682514527208E-3</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" ref="AA35" si="28">(AA34-Z34)/Z34</f>
+        <f t="shared" ref="AA35" si="40">(AA34-Z34)/Z34</f>
         <v>0</v>
       </c>
     </row>
@@ -6311,82 +6588,82 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="21" x14ac:dyDescent="0.25">
@@ -6394,82 +6671,82 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -6477,7 +6754,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>113200000</v>
@@ -6560,25 +6837,25 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1">
         <v>94500000</v>
@@ -6643,7 +6920,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>113200000</v>
@@ -6726,7 +7003,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>454400000</v>
@@ -6809,82 +7086,82 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -6892,7 +7169,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>217400000</v>
@@ -6975,7 +7252,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>785000000</v>
@@ -7058,7 +7335,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>280000000</v>
@@ -7141,28 +7418,28 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1">
         <v>176100000</v>
@@ -7224,7 +7501,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1">
         <v>167500000</v>
@@ -7307,7 +7584,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1">
         <v>167500000</v>
@@ -7390,40 +7667,40 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1">
         <v>30800000</v>
@@ -7462,10 +7739,10 @@
         <v>443000000</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -7473,34 +7750,34 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1">
         <v>220100000</v>
@@ -7556,7 +7833,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>553200000</v>
@@ -7639,7 +7916,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>1000700000</v>
@@ -7722,82 +7999,82 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -7805,7 +8082,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>1785700000</v>
@@ -7888,10 +8165,10 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1">
         <v>135400000</v>
@@ -7960,10 +8237,10 @@
         <v>47000000</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -7971,31 +8248,31 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1">
         <v>127300000</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1">
         <v>107100000</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1">
         <v>300000000</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1">
         <v>551900000</v>
@@ -8016,13 +8293,13 @@
         <v>63800000</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T56" s="1">
         <v>300000000</v>
@@ -8034,7 +8311,7 @@
         <v>449900000</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X56" s="1">
         <v>94000000</v>
@@ -8054,70 +8331,70 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1">
         <v>128000000</v>
@@ -8126,10 +8403,10 @@
         <v>115000000</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -8137,16 +8414,16 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1">
         <v>170000000</v>
@@ -8220,7 +8497,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>1287500000</v>
@@ -8232,16 +8509,16 @@
         <v>122400000</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J59" s="1">
         <v>330900000</v>
@@ -8303,7 +8580,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>1414800000</v>
@@ -8386,10 +8663,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1">
         <v>300000000</v>
@@ -8404,7 +8681,7 @@
         <v>300000000</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1">
         <v>300000000</v>
@@ -8469,37 +8746,37 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1">
         <v>103800000</v>
@@ -8552,34 +8829,34 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1">
         <v>19000000</v>
@@ -8635,7 +8912,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>485600000</v>
@@ -8718,7 +8995,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>485600000</v>
@@ -8801,82 +9078,82 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -8884,7 +9161,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>1900400000</v>
@@ -8967,7 +9244,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>1700000</v>
@@ -9039,10 +9316,10 @@
         <v>3000000</v>
       </c>
       <c r="Z68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -9050,7 +9327,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1">
         <v>-105900000</v>
@@ -9122,7 +9399,7 @@
         <v>12762000000</v>
       </c>
       <c r="Z69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA69" s="1">
         <v>14136000000</v>
@@ -9133,7 +9410,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1">
         <v>-444100000</v>
@@ -9205,10 +9482,10 @@
         <v>-410000000</v>
       </c>
       <c r="Z70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -9216,7 +9493,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>131700000</v>
@@ -9291,7 +9568,7 @@
         <v>2255000000</v>
       </c>
       <c r="AA71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -9299,7 +9576,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>-416600000</v>
@@ -9382,7 +9659,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>1483800000</v>
@@ -9465,82 +9742,82 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:27" ht="21" x14ac:dyDescent="0.25">
@@ -9548,82 +9825,82 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -9631,7 +9908,7 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1">
         <v>280100000</v>
@@ -9705,8 +9982,8 @@
       <c r="Z76" s="1">
         <v>2214000000</v>
       </c>
-      <c r="AA76" s="1" t="s">
-        <v>92</v>
+      <c r="AA76" s="1">
+        <v>1374000000</v>
       </c>
     </row>
     <row r="77" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -9714,7 +9991,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1">
         <v>141600000</v>
@@ -9788,8 +10065,8 @@
       <c r="Z77" s="1">
         <v>257000000</v>
       </c>
-      <c r="AA77" s="1" t="s">
-        <v>92</v>
+      <c r="AA77" s="1">
+        <v>331000000</v>
       </c>
     </row>
     <row r="78" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -9797,7 +10074,7 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1">
         <v>-49200000</v>
@@ -9871,8 +10148,8 @@
       <c r="Z78" s="1">
         <v>-218000000</v>
       </c>
-      <c r="AA78" s="1" t="s">
-        <v>92</v>
+      <c r="AA78" s="1">
+        <v>48000000</v>
       </c>
     </row>
     <row r="79" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -9880,40 +10157,40 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1">
         <v>57400000</v>
@@ -9955,116 +10232,116 @@
         <v>175000000</v>
       </c>
       <c r="AA79" s="1">
-        <v>175000000</v>
+        <v>169000000</v>
       </c>
     </row>
     <row r="80" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AA80" si="29">B79/B3</f>
+        <f t="shared" ref="B80:AA80" si="41">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>3.1938571110616515E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>2.7854330708661418E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>2.486078835445258E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>2.362377760685639E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>2.2573591253153912E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>2.4113007227903906E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>2.5025111206772852E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>2.7218245380389545E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>2.9233367427035514E-2</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>2.932901163706755E-2</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>2.8163180782770761E-2</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>2.8672500465462668E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>2.8144097780636861E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="29"/>
-        <v>3.2004389173372345E-2</v>
+        <f t="shared" si="41"/>
+        <v>3.0907095830285298E-2</v>
       </c>
     </row>
     <row r="81" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -10072,7 +10349,7 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1">
         <v>-59100000</v>
@@ -10147,7 +10424,7 @@
         <v>-400000000</v>
       </c>
       <c r="AA81" s="1">
-        <v>1474000000</v>
+        <v>-427000000</v>
       </c>
     </row>
     <row r="82" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -10155,40 +10432,40 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1">
         <v>-14900000</v>
@@ -10229,8 +10506,8 @@
       <c r="Z82" s="1">
         <v>-257000000</v>
       </c>
-      <c r="AA82" s="1" t="s">
-        <v>92</v>
+      <c r="AA82" s="1">
+        <v>34000000</v>
       </c>
     </row>
     <row r="83" spans="1:35" ht="21" x14ac:dyDescent="0.25">
@@ -10238,181 +10515,181 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH83" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI83" s="62"/>
+        <v>91</v>
+      </c>
+      <c r="AH83" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI83" s="61"/>
     </row>
     <row r="84" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH84" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI84" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="AH84" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI84" s="63"/>
     </row>
     <row r="85" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1">
         <v>-588700000</v>
@@ -10486,11 +10763,11 @@
       <c r="Z85" s="1">
         <v>65000000</v>
       </c>
-      <c r="AA85" s="1" t="s">
-        <v>92</v>
+      <c r="AA85" s="1">
+        <v>20000000</v>
       </c>
       <c r="AH85" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AI85" s="24">
         <f>AA17</f>
@@ -10502,7 +10779,7 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1">
         <v>28800000</v>
@@ -10571,16 +10848,16 @@
         <v>59000000</v>
       </c>
       <c r="Y86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z86" s="1">
         <v>-23000000</v>
       </c>
       <c r="AA86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH86" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AI86" s="24">
         <f>AA56</f>
@@ -10592,7 +10869,7 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10">
         <v>342200000</v>
@@ -10670,7 +10947,7 @@
         <v>1474000000</v>
       </c>
       <c r="AH87" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AI87" s="24">
         <f>AA61</f>
@@ -10682,7 +10959,7 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1">
         <v>-55400000</v>
@@ -10718,49 +10995,49 @@
         <v>-84400000</v>
       </c>
       <c r="N88" s="1">
-        <v>0</v>
+        <v>-90600000</v>
       </c>
       <c r="O88" s="1">
-        <v>0</v>
+        <v>-78600000</v>
       </c>
       <c r="P88" s="1">
-        <v>0</v>
+        <v>-67200000</v>
       </c>
       <c r="Q88" s="1">
-        <v>0</v>
+        <v>-44500000</v>
       </c>
       <c r="R88" s="1">
-        <v>0</v>
+        <v>-42000000</v>
       </c>
       <c r="S88" s="1">
-        <v>0</v>
+        <v>-74300000</v>
       </c>
       <c r="T88" s="1">
-        <v>0</v>
+        <v>-88600000</v>
       </c>
       <c r="U88" s="1">
-        <v>0</v>
+        <v>-115500000</v>
       </c>
       <c r="V88" s="1">
-        <v>0</v>
+        <v>-90600000</v>
       </c>
       <c r="W88" s="1">
-        <v>0</v>
+        <v>-91000000</v>
       </c>
       <c r="X88" s="1">
-        <v>0</v>
+        <v>-69000000</v>
       </c>
       <c r="Y88" s="1">
-        <v>0</v>
+        <v>-103000000</v>
       </c>
       <c r="Z88" s="1">
-        <v>0</v>
+        <v>-139000000</v>
       </c>
       <c r="AA88" s="1">
-        <v>0</v>
+        <v>-283000000</v>
       </c>
       <c r="AH88" s="32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AI88" s="33">
         <f>AI85/(AI86+AI87)</f>
@@ -10769,114 +11046,114 @@
     </row>
     <row r="89" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:AA89" si="42">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="42"/>
+        <v>2.8637890927888342E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="42"/>
+        <v>2.2365351455522871E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="42"/>
+        <v>2.0421716752448946E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="42"/>
+        <v>1.8576628592945902E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="42"/>
+        <v>1.7687872569139059E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="42"/>
+        <v>1.4359056634044602E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="42"/>
+        <v>1.4809149690606966E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="42"/>
+        <v>1.8075768075768075E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="42"/>
+        <v>1.5266800844337538E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="42"/>
+        <v>8.0478087649402397E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="42"/>
+        <v>4.8080209638828759E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="42"/>
+        <v>5.0411751613621186E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="42"/>
+        <v>3.8681102362204726E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="42"/>
+        <v>2.9464638049721575E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="42"/>
+        <v>1.6298575248141229E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="42"/>
+        <v>1.4129520605550883E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="42"/>
+        <v>2.2283537774045528E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="42"/>
+        <v>2.5426890515138471E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="42"/>
+        <v>3.204594639587148E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="42"/>
+        <v>2.1550391284698271E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="42"/>
+        <v>2.0483039593040268E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="42"/>
+        <v>1.4288672603023401E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="42"/>
+        <v>1.9177061999627629E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="42"/>
+        <v>2.2354454808620135E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="42"/>
+        <v>5.1755669348939284E-2</v>
+      </c>
+      <c r="AH89" s="23" t="s">
         <v>105</v>
-      </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AA89" si="30">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="30"/>
-        <v>2.8637890927888342E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="30"/>
-        <v>2.2365351455522871E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="30"/>
-        <v>2.0421716752448946E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="30"/>
-        <v>1.8576628592945902E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="30"/>
-        <v>1.7687872569139059E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="30"/>
-        <v>1.4359056634044602E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="30"/>
-        <v>1.4809149690606966E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="30"/>
-        <v>1.8075768075768075E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="30"/>
-        <v>1.5266800844337538E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="30"/>
-        <v>8.0478087649402397E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="30"/>
-        <v>4.8080209638828759E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AH89" s="23" t="s">
-        <v>106</v>
       </c>
       <c r="AI89" s="24">
         <f>AA27</f>
@@ -10888,28 +11165,28 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1">
         <v>-30000000</v>
@@ -10962,8 +11239,8 @@
       <c r="Z90" s="1">
         <v>-2179000000</v>
       </c>
-      <c r="AA90" s="1" t="s">
-        <v>92</v>
+      <c r="AA90" s="1">
+        <v>-97000000</v>
       </c>
       <c r="AH90" s="23" t="s">
         <v>19</v>
@@ -10978,7 +11255,7 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1">
         <v>-50400000</v>
@@ -10987,19 +11264,19 @@
         <v>-21800000</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1">
         <v>-324400000</v>
@@ -11052,11 +11329,11 @@
       <c r="Z91" s="1">
         <v>-485000000</v>
       </c>
-      <c r="AA91" s="1" t="s">
-        <v>92</v>
+      <c r="AA91" s="1">
+        <v>-320000000</v>
       </c>
       <c r="AH91" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AI91" s="33">
         <f>AI89/AI90</f>
@@ -11068,7 +11345,7 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1">
         <v>50900000</v>
@@ -11077,19 +11354,19 @@
         <v>22500000</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1">
         <v>235500000</v>
@@ -11142,11 +11419,11 @@
       <c r="Z92" s="1">
         <v>184000000</v>
       </c>
-      <c r="AA92" s="1" t="s">
-        <v>92</v>
+      <c r="AA92" s="1">
+        <v>438000000</v>
       </c>
       <c r="AH92" s="34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AI92" s="35">
         <f>AI88*(1-AI91)</f>
@@ -11158,7 +11435,7 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1">
         <v>-49800000</v>
@@ -11235,17 +11512,17 @@
       <c r="AA93" s="1">
         <v>-262000000</v>
       </c>
-      <c r="AH93" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI93" s="64"/>
+      <c r="AH93" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI93" s="63"/>
     </row>
     <row r="94" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10">
         <v>-104700000</v>
@@ -11323,10 +11600,11 @@
         <v>-262000000</v>
       </c>
       <c r="AH94" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AI94" s="36">
-        <v>4.095E-2</v>
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7280000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11334,40 +11612,40 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1">
         <v>-13762900000</v>
@@ -11376,7 +11654,7 @@
         <v>-2935700000</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1">
         <v>-71300000</v>
@@ -11388,10 +11666,10 @@
         <v>-300000000</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1">
         <v>-2007200000</v>
@@ -11408,15 +11686,15 @@
       <c r="Z95" s="1">
         <v>-500000000</v>
       </c>
-      <c r="AA95" s="1" t="s">
-        <v>92</v>
+      <c r="AA95" s="1">
+        <v>-626000000</v>
       </c>
       <c r="AH95" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI95" s="55" cm="1">
+        <v>133</v>
+      </c>
+      <c r="AI95" s="54" cm="1">
         <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>1.2939000000000001</v>
+        <v>1.2992999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11424,7 +11702,7 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1">
         <v>41000000</v>
@@ -11460,49 +11738,49 @@
         <v>23500000</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH96" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AI96" s="36">
         <v>8.4000000000000005E-2</v>
@@ -11513,7 +11791,7 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1">
         <v>-220200000</v>
@@ -11549,7 +11827,7 @@
         <v>-592900000</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1">
         <v>-223600000</v>
@@ -11587,15 +11865,15 @@
       <c r="Z97" s="1">
         <v>-750000000</v>
       </c>
-      <c r="AA97" s="1" t="s">
-        <v>92</v>
+      <c r="AA97" s="1">
+        <v>-983000000</v>
       </c>
       <c r="AH97" s="34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AI97" s="35">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>9.6652395000000002E-2</v>
+        <v>9.7983295999999998E-2</v>
       </c>
     </row>
     <row r="98" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -11603,7 +11881,7 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1">
         <v>-137400000</v>
@@ -11677,20 +11955,20 @@
       <c r="Z98" s="1">
         <v>-463000000</v>
       </c>
-      <c r="AA98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH98" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI98" s="64"/>
+      <c r="AA98" s="1">
+        <v>-515000000</v>
+      </c>
+      <c r="AH98" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI98" s="63"/>
     </row>
     <row r="99" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1">
         <v>89300000</v>
@@ -11702,7 +11980,7 @@
         <v>300000000</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G99" s="1">
         <v>107100000</v>
@@ -11768,7 +12046,7 @@
         <v>-1208000000</v>
       </c>
       <c r="AH99" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AI99" s="24">
         <f>AI86+AI87</f>
@@ -11780,7 +12058,7 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10">
         <v>-227300000</v>
@@ -11858,11 +12136,11 @@
         <v>-1208000000</v>
       </c>
       <c r="AH100" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AI100" s="33">
         <f>AI99/AI103</f>
-        <v>0.12023378843165322</v>
+        <v>0.11138580988979349</v>
       </c>
     </row>
     <row r="101" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11870,7 +12148,7 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1">
         <v>-1400000</v>
@@ -11944,15 +12222,15 @@
       <c r="Z101" s="1">
         <v>-50000000</v>
       </c>
-      <c r="AA101" s="1" t="s">
-        <v>92</v>
+      <c r="AA101" s="1">
+        <v>-46000000</v>
       </c>
       <c r="AH101" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI101" s="48" cm="1">
+        <v>139</v>
+      </c>
+      <c r="AI101" s="47" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>57534590000</v>
+        <v>62729475000</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11960,10 +12238,10 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10">
         <v>22600000</v>
@@ -12034,15 +12312,15 @@
       <c r="Z102" s="10">
         <v>-786000000</v>
       </c>
-      <c r="AA102" s="10" t="s">
-        <v>92</v>
+      <c r="AA102" s="10">
+        <v>-42000000</v>
       </c>
       <c r="AH102" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AI102" s="33">
         <f>AI101/AI103</f>
-        <v>0.87976621156834678</v>
+        <v>0.88861419011020648</v>
       </c>
     </row>
     <row r="103" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12050,7 +12328,7 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1">
         <v>81800000</v>
@@ -12128,22 +12406,22 @@
         <v>1811000000</v>
       </c>
       <c r="AH103" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AI103" s="37">
         <f>AI99+AI101</f>
-        <v>65397590000</v>
+        <v>70592475000</v>
       </c>
     </row>
-    <row r="104" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11">
         <v>113200000</v>
@@ -12214,407 +12492,495 @@
       <c r="Z104" s="11">
         <v>1811000000</v>
       </c>
-      <c r="AA104" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH104" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI104" s="64"/>
+      <c r="AA104" s="11">
+        <v>1769000000</v>
+      </c>
+      <c r="AH104" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI104" s="63"/>
     </row>
-    <row r="105" spans="1:35" ht="20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>4.8117154811715412E-2</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>-0.81603459747172324</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>4.2712477396021704</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>8.6449399656946868E-2</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:T105" si="31">(H106/G106)-1</f>
-        <v>0.42248184401641931</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="31"/>
-        <v>0.10632630410654831</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="31"/>
-        <v>0.3575441412520064</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="31"/>
-        <v>6.6213420041383309E-2</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="31"/>
-        <v>0.11200443581924047</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="31"/>
-        <v>-0.43866866118175019</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="31"/>
-        <v>0.22829224961137018</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="31"/>
-        <v>3.832941601880302E-2</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="31"/>
-        <v>0.28086366010795749</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="31"/>
-        <v>5.7775965198477497E-2</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="31"/>
-        <v>0.13674334918390962</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="31"/>
-        <v>6.72696438665914E-2</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="31"/>
-        <v>0.12775423728813551</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" ref="U105" si="32">(U106/T106)-1</f>
-        <v>4.3490512868683107E-2</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" ref="V105" si="33">(V106/U106)-1</f>
-        <v>-0.40867764875326307</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" ref="W105" si="34">(W106/V106)-1</f>
-        <v>1.0866189678794336</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" ref="X105" si="35">(X106/W106)-1</f>
-        <v>0.1716641132268184</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" ref="Y105" si="36">(Y106/X106)-1</f>
-        <v>0.27210460772104605</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" ref="Z105" si="37">(Z106/Y106)-1</f>
-        <v>-8.6637298091042592E-2</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" ref="AA105" si="38">(AA106/Z106)-1</f>
-        <v>-0.210075026795284</v>
-      </c>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="15"/>
-      <c r="AD105" s="15"/>
-      <c r="AE105" s="15"/>
-      <c r="AF105" s="15"/>
-      <c r="AG105" s="15"/>
+        <v>157</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" ref="C105:Z105" si="43">((C22*(1-$AI$91))+C77+C88+C81)</f>
+        <v>377391931.81818181</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="43"/>
+        <v>376805340.90909088</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="43"/>
+        <v>124026704.54545453</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="43"/>
+        <v>387201704.5454545</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="43"/>
+        <v>421584886.36363631</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="43"/>
+        <v>559970113.63636363</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="43"/>
+        <v>611528181.81818175</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="43"/>
+        <v>742328636.36363637</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="43"/>
+        <v>1163468750</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="43"/>
+        <v>1067351136.3636364</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="43"/>
+        <v>546206136.36363637</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="43"/>
+        <v>613918750</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="43"/>
+        <v>625610909.090909</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="43"/>
+        <v>798457727.27272725</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="43"/>
+        <v>835706590.90909088</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="43"/>
+        <v>1050829772.7272726</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="43"/>
+        <v>1119379204.5454545</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="43"/>
+        <v>1211256590.9090908</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="43"/>
+        <v>1459721477.2727273</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="43"/>
+        <v>1021131477.2727273</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="43"/>
+        <v>1477769772.7272727</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="43"/>
+        <v>1586802272.7272727</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="43"/>
+        <v>2019268181.8181818</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="43"/>
+        <v>1938259090.909091</v>
+      </c>
+      <c r="AA105" s="1">
+        <f>((AA22*(1-$AI$91))+AA77+AA88+AA81)</f>
+        <v>1091023863.6363635</v>
+      </c>
+      <c r="AB105" s="55">
+        <f>AA105*(1+$AI$106)</f>
+        <v>1180307723.1663246</v>
+      </c>
+      <c r="AC105" s="55">
+        <f t="shared" ref="AC105:AF105" si="44">AB105*(1+$AI$106)</f>
+        <v>1276898120.9290946</v>
+      </c>
+      <c r="AD105" s="55">
+        <f t="shared" si="44"/>
+        <v>1381392986.956244</v>
+      </c>
+      <c r="AE105" s="55">
+        <f t="shared" si="44"/>
+        <v>1494439182.8405373</v>
+      </c>
+      <c r="AF105" s="55">
+        <f t="shared" si="44"/>
+        <v>1616736506.0467291</v>
+      </c>
+      <c r="AG105" s="38" t="s">
+        <v>160</v>
+      </c>
       <c r="AH105" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AI105" s="26">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>8.7789067132948637E-2</v>
+        <v>8.9623975032035633E-2</v>
       </c>
     </row>
     <row r="106" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1">
-        <v>286800000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>300600000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>55300000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>291500000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>316700000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>450500000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>498400000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>676600000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>721400000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>802200000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>450300000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>553100000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>574300000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>735600000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>778100000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>884500000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>944000000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>1064600000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>1110900000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>656900000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>1370700000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>1606000000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>2043000000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>1866000000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>1474000000</v>
-      </c>
-      <c r="AB106" s="56">
-        <f>AA106*(1+$AI$106)</f>
-        <v>1596446836.7952249</v>
-      </c>
-      <c r="AC106" s="56">
-        <f t="shared" ref="AC106:AF106" si="39">AB106*(1+$AI$106)</f>
-        <v>1729065469.9548707</v>
-      </c>
-      <c r="AD106" s="56">
-        <f t="shared" si="39"/>
-        <v>1872700882.0361617</v>
-      </c>
-      <c r="AE106" s="56">
-        <f t="shared" si="39"/>
-        <v>2028268249.247122</v>
-      </c>
-      <c r="AF106" s="56">
-        <f t="shared" si="39"/>
-        <v>2196758772.5120463</v>
+      <c r="A106" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f>(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>4.8117154811715412E-2</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>-0.81603459747172324</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>4.2712477396021704</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>8.6449399656946868E-2</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" ref="H106:T106" si="45">(H107/G107)-1</f>
+        <v>0.42248184401641931</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="45"/>
+        <v>0.10632630410654831</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="45"/>
+        <v>0.3575441412520064</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="45"/>
+        <v>6.6213420041383309E-2</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="45"/>
+        <v>0.11200443581924047</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="45"/>
+        <v>-0.43866866118175019</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="45"/>
+        <v>0.22829224961137018</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="45"/>
+        <v>3.832941601880302E-2</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="45"/>
+        <v>0.28086366010795749</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="45"/>
+        <v>5.7775965198477497E-2</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="45"/>
+        <v>0.13674334918390962</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="45"/>
+        <v>6.72696438665914E-2</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="45"/>
+        <v>0.12775423728813551</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" ref="U106" si="46">(U107/T107)-1</f>
+        <v>4.3490512868683107E-2</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" ref="V106" si="47">(V107/U107)-1</f>
+        <v>-0.40867764875326307</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" ref="W106" si="48">(W107/V107)-1</f>
+        <v>1.0866189678794336</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" ref="X106" si="49">(X107/W107)-1</f>
+        <v>0.1716641132268184</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" ref="Y106" si="50">(Y107/X107)-1</f>
+        <v>0.27210460772104605</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" ref="Z106" si="51">(Z107/Y107)-1</f>
+        <v>-8.6637298091042592E-2</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" ref="AA106" si="52">(AA107/Z107)-1</f>
+        <v>-0.210075026795284</v>
+      </c>
+      <c r="AB106" s="71">
+        <v>1842000000</v>
+      </c>
+      <c r="AC106" s="71">
+        <v>2151000000</v>
+      </c>
+      <c r="AD106" s="71">
+        <v>2465000000</v>
+      </c>
+      <c r="AE106" s="71">
+        <v>2723000000</v>
+      </c>
+      <c r="AF106" s="71">
+        <v>2987000000</v>
       </c>
       <c r="AG106" s="38" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="AH106" s="39" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AI106" s="40">
         <f>(SUM(AB4:AF4)/5)</f>
-        <v>8.3071124013042619E-2</v>
+        <v>8.1834928186061612E-2</v>
       </c>
     </row>
     <row r="107" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
+      <c r="A107" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1">
+        <v>286800000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>300600000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>55300000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>291500000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>316700000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>450500000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>498400000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>676600000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>721400000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>802200000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>450300000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>553100000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>574300000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>735600000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>778100000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>884500000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>944000000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>1064600000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>1110900000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>656900000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>1370700000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>1606000000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>2043000000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>1866000000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>1474000000</v>
+      </c>
       <c r="AB107" s="38"/>
       <c r="AC107" s="38"/>
       <c r="AD107" s="38"/>
       <c r="AE107" s="38"/>
-      <c r="AF107" s="41">
+      <c r="AF107" s="72">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>35860984159.187752</v>
-      </c>
-      <c r="AG107" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH107" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI107" s="44">
+        <v>47376766880.747513</v>
+      </c>
+      <c r="AG107" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH107" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI107" s="43">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB108" s="41">
-        <f t="shared" ref="AB108:AD108" si="40">AB107+AB106</f>
-        <v>1596446836.7952249</v>
-      </c>
-      <c r="AC108" s="41">
-        <f t="shared" si="40"/>
-        <v>1729065469.9548707</v>
-      </c>
-      <c r="AD108" s="41">
-        <f t="shared" si="40"/>
-        <v>1872700882.0361617</v>
-      </c>
-      <c r="AE108" s="41">
+      <c r="AB108" s="72">
+        <f t="shared" ref="AB108:AD108" si="53">AB107+AB106</f>
+        <v>1842000000</v>
+      </c>
+      <c r="AC108" s="72">
+        <f t="shared" si="53"/>
+        <v>2151000000</v>
+      </c>
+      <c r="AD108" s="72">
+        <f t="shared" si="53"/>
+        <v>2465000000</v>
+      </c>
+      <c r="AE108" s="72">
         <f>AE107+AE106</f>
-        <v>2028268249.247122</v>
-      </c>
-      <c r="AF108" s="41">
+        <v>2723000000</v>
+      </c>
+      <c r="AF108" s="72">
         <f>AF107+AF106</f>
-        <v>38057742931.699799</v>
-      </c>
-      <c r="AG108" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH108" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI108" s="46">
+        <v>50363766880.747513</v>
+      </c>
+      <c r="AG108" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH108" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI108" s="45">
         <f>AI105</f>
-        <v>8.7789067132948637E-2</v>
+        <v>8.9623975032035633E-2</v>
       </c>
     </row>
     <row r="109" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB109" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC109" s="60"/>
+      <c r="AB109" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC109" s="59"/>
     </row>
     <row r="110" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB110" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC110" s="48">
+      <c r="AB110" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC110" s="47">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>30819660898.170986</v>
+        <v>40128816448.833672</v>
       </c>
     </row>
     <row r="111" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB111" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC111" s="48">
+      <c r="AB111" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC111" s="47">
         <f>AA40</f>
         <v>1859000000</v>
       </c>
     </row>
     <row r="112" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB112" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC112" s="48">
+      <c r="AB112" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC112" s="47">
         <f>AI99</f>
         <v>7863000000</v>
       </c>
     </row>
     <row r="113" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB113" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC113" s="48">
+      <c r="AB113" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC113" s="47">
         <f>AC110+AC111-AC112</f>
-        <v>24815660898.170986</v>
+        <v>34124816448.833672</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB114" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC114" s="49">
+      <c r="AB114" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC114" s="48">
         <f>AA34*(1+(5*AG16))</f>
         <v>181741902.6270411</v>
       </c>
     </row>
     <row r="115" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB115" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC115" s="58">
+      <c r="AB115" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC115" s="57">
         <f>AC113/AC114</f>
-        <v>136.54341975882178</v>
+        <v>187.76526467240964</v>
       </c>
     </row>
     <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB116" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC116" s="57" cm="1">
+      <c r="AB116" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC116" s="56" cm="1">
         <f t="array" ref="AC116">_FV(A1,"Price")</f>
-        <v>313.54000000000002</v>
+        <v>341.85</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB117" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC117" s="52">
+      <c r="AB117" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC117" s="51">
         <f>AC115/AC116-1</f>
-        <v>-0.56451036627281437</v>
+        <v>-0.45073785381772813</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB118" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC118" s="53" t="str">
+      <c r="AB118" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC118" s="52" t="str">
         <f>IF(AC115&gt;AC116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -12683,8 +13049,9 @@
     <hyperlink ref="AA36" r:id="rId52" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="AA74" r:id="rId53" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
     <hyperlink ref="AB1" r:id="rId54" display="https://finbox.com/NYSE:MCO/explorer/revenue_proj" xr:uid="{17567B22-E74E-2648-ACC3-80B2C97B0554}"/>
+    <hyperlink ref="AG106" r:id="rId55" xr:uid="{7B384A68-96CF-314D-B1DC-32D3023BD76B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId55"/>
+  <drawing r:id="rId56"/>
 </worksheet>
 </file>
--- a/Financial Services/Moodys.xlsx
+++ b/Financial Services/Moodys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241386AF-46E4-F447-82C5-0376644BE6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20C28D3-9C1D-EC47-AAF6-28FE2AC8381F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -586,8 +586,8 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -928,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1043,6 +1043,28 @@
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1060,29 +1082,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2367,12 +2366,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2389,14 +2389,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7280000000000001E-2</v>
+            <v>3.712E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2404,6 +2404,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2531,11 +2532,9 @@
     <v>Powered by Refinitiv</v>
     <v>351.06</v>
     <v>230.16</v>
-    <v>1.2992999999999999</v>
-    <v>-6.46</v>
-    <v>-1.8547000000000001E-2</v>
-    <v>4.6500000000000004</v>
-    <v>1.3602000000000001E-2</v>
+    <v>1.2966</v>
+    <v>2.86</v>
+    <v>8.3730000000000002E-3</v>
     <v>USD</v>
     <v>Moody's Corporation is a global integrated risk assessment company. The Company operates through two segments: Moody's Investors Service (MIS), and Moody's Analytics (MA). The MIS segment publishes credit ratings and provides assessment services on a range of debt obligations, programs and facilities, and the entities that issue such obligations in markets worldwide, including various corporate, financial institution and governmental obligations, and structured finance securities. The MIS segment consists of five lines of business, which include corporate finance group; structured finance group; financial institutions group; public, project and infrastructure finance, and MIS Other. The MA segment develops a range of products and services that support the risk management activities of institutional participants in global financial markets. The MA segment consists of three lines of business, such as decision solutions, research and insights, and data and information.</v>
     <v>14419</v>
@@ -2543,25 +2542,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>7 World Trade Ctr, NEW YORK, NY, 10007-2140 US</v>
-    <v>351.06</v>
+    <v>344.83499999999998</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45093.977176805471</v>
+    <v>45106.958333344533</v>
     <v>0</v>
-    <v>341.76</v>
-    <v>62729475000</v>
+    <v>340.42</v>
+    <v>63206575000</v>
     <v>MOODY'S CORPORATION</v>
     <v>MOODY'S CORPORATION</v>
-    <v>350.39</v>
-    <v>45.033499999999997</v>
-    <v>348.31</v>
-    <v>341.85</v>
-    <v>346.5</v>
+    <v>341.88</v>
+    <v>44.534500000000001</v>
+    <v>341.59</v>
+    <v>344.45</v>
     <v>183500000</v>
     <v>MCO</v>
     <v>MOODY'S CORPORATION (XNYS:MCO)</v>
-    <v>1243316</v>
-    <v>805736</v>
+    <v>384459</v>
+    <v>817442</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -2593,8 +2591,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2615,7 +2611,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2632,7 +2627,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2643,16 +2638,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2718,19 +2710,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2775,9 +2761,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2785,9 +2768,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3149,10 +3129,10 @@
   <dimension ref="A1:AJ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE88" sqref="AE88"/>
+      <selection pane="bottomRight" activeCell="AC100" sqref="AC100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4759,15 +4739,15 @@
       </c>
       <c r="AH16" s="30">
         <f>AI101/AA3</f>
-        <v>11.472105888807608</v>
+        <v>11.559358997805413</v>
       </c>
       <c r="AI16" s="30">
         <f>AI101/AA28</f>
-        <v>45.654639737991268</v>
+        <v>46.001874090247455</v>
       </c>
       <c r="AJ16" s="31">
         <f>AI101/AA107</f>
-        <v>42.557310040705566</v>
+        <v>42.880987109905021</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -5030,36 +5010,36 @@
       <c r="AA19" s="10">
         <v>1883000000</v>
       </c>
-      <c r="AB19" s="65">
+      <c r="AB19" s="59">
         <v>2601000000</v>
       </c>
-      <c r="AC19" s="65">
+      <c r="AC19" s="59">
         <v>3007000000</v>
       </c>
-      <c r="AD19" s="65">
+      <c r="AD19" s="59">
         <v>3400000000</v>
       </c>
-      <c r="AE19" s="65">
+      <c r="AE19" s="59">
         <v>3640000000</v>
       </c>
-      <c r="AF19" s="65">
+      <c r="AF19" s="59">
         <v>3997000000</v>
       </c>
       <c r="AG19" s="53">
         <f>AA40-AA56-AA61</f>
         <v>-6004000000</v>
       </c>
-      <c r="AH19" s="73">
+      <c r="AH19" s="66">
         <f>AI101/AB3</f>
-        <v>10.63571973550356</v>
-      </c>
-      <c r="AI19" s="73">
+        <v>10.716611563241777</v>
+      </c>
+      <c r="AI19" s="66">
         <f>AI101/AB28</f>
-        <v>34.946782729805015</v>
-      </c>
-      <c r="AJ19" s="74">
+        <v>35.212576601671309</v>
+      </c>
+      <c r="AJ19" s="67">
         <f>AI101/AB106</f>
-        <v>34.055089576547232</v>
+        <v>34.314101520086865</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5167,23 +5147,23 @@
         <f t="shared" ref="AA20" si="12">(AA19/Z19)-1</f>
         <v>-0.41394335511982572</v>
       </c>
-      <c r="AB20" s="66">
+      <c r="AB20" s="16">
         <f t="shared" ref="AB20" si="13">(AB19/AA19)-1</f>
         <v>0.38130642591609143</v>
       </c>
-      <c r="AC20" s="66">
+      <c r="AC20" s="16">
         <f t="shared" ref="AC20" si="14">(AC19/AB19)-1</f>
         <v>0.1560938100730489</v>
       </c>
-      <c r="AD20" s="66">
+      <c r="AD20" s="16">
         <f t="shared" ref="AD20" si="15">(AD19/AC19)-1</f>
         <v>0.13069504489524442</v>
       </c>
-      <c r="AE20" s="66">
+      <c r="AE20" s="16">
         <f t="shared" ref="AE20" si="16">(AE19/AD19)-1</f>
         <v>7.0588235294117618E-2</v>
       </c>
-      <c r="AF20" s="66">
+      <c r="AF20" s="16">
         <f t="shared" ref="AF20" si="17">(AF19/AE19)-1</f>
         <v>9.8076923076923173E-2</v>
       </c>
@@ -5270,23 +5250,23 @@
       <c r="AA21" s="2">
         <v>0.34439999999999998</v>
       </c>
-      <c r="AB21" s="67">
+      <c r="AB21" s="60">
         <f>AB19/AB3</f>
         <v>0.4409969481180061</v>
       </c>
-      <c r="AC21" s="67">
+      <c r="AC21" s="60">
         <f t="shared" ref="AC21:AF21" si="18">AC19/AC3</f>
         <v>0.46390003085467446</v>
       </c>
-      <c r="AD21" s="67">
+      <c r="AD21" s="60">
         <f t="shared" si="18"/>
         <v>0.47867098409122905</v>
       </c>
-      <c r="AE21" s="67">
+      <c r="AE21" s="60">
         <f t="shared" si="18"/>
         <v>0.48436460412508314</v>
       </c>
-      <c r="AF21" s="67">
+      <c r="AF21" s="60">
         <f t="shared" si="18"/>
         <v>0.49351771823681934</v>
       </c>
@@ -5379,13 +5359,13 @@
       <c r="AA22" s="10">
         <v>1883000000</v>
       </c>
-      <c r="AI22" s="75">
+      <c r="AI22" s="68">
         <f>(-1*AA98)/AI101</f>
-        <v>8.2098566901763481E-3</v>
-      </c>
-      <c r="AJ22" s="76">
+        <v>8.1478865133888367E-3</v>
+      </c>
+      <c r="AJ22" s="69">
         <f>AA107/AI101</f>
-        <v>2.3497725750135801E-2</v>
+        <v>2.3320358681039117E-2</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -5885,19 +5865,19 @@
       <c r="AA28" s="11">
         <v>1374000000</v>
       </c>
-      <c r="AB28" s="68">
+      <c r="AB28" s="61">
         <v>1795000000</v>
       </c>
-      <c r="AC28" s="68">
+      <c r="AC28" s="61">
         <v>2028000000</v>
       </c>
-      <c r="AD28" s="68">
+      <c r="AD28" s="61">
         <v>2280000000</v>
       </c>
-      <c r="AE28" s="68">
+      <c r="AE28" s="61">
         <v>2504000000</v>
       </c>
-      <c r="AF28" s="68">
+      <c r="AF28" s="61">
         <v>2797000000</v>
       </c>
     </row>
@@ -6109,23 +6089,23 @@
       <c r="AA30" s="2">
         <v>0.25130000000000002</v>
       </c>
-      <c r="AB30" s="69">
+      <c r="AB30" s="62">
         <f>AB28/AB3</f>
         <v>0.30434045439131907</v>
       </c>
-      <c r="AC30" s="69">
+      <c r="AC30" s="62">
         <f t="shared" ref="AC30:AF30" si="32">AC28/AC3</f>
         <v>0.31286639925948784</v>
       </c>
-      <c r="AD30" s="69">
+      <c r="AD30" s="62">
         <f t="shared" si="32"/>
         <v>0.32099113050823597</v>
       </c>
-      <c r="AE30" s="69">
+      <c r="AE30" s="62">
         <f t="shared" si="32"/>
         <v>0.33320026613439785</v>
       </c>
-      <c r="AF30" s="69">
+      <c r="AF30" s="62">
         <f t="shared" si="32"/>
         <v>0.3453512779355476</v>
       </c>
@@ -6212,19 +6192,19 @@
       <c r="AA31" s="12">
         <v>7.37</v>
       </c>
-      <c r="AB31" s="70">
+      <c r="AB31" s="63">
         <v>9.7799999999999994</v>
       </c>
-      <c r="AC31" s="70">
+      <c r="AC31" s="63">
         <v>11.05</v>
       </c>
-      <c r="AD31" s="70">
+      <c r="AD31" s="63">
         <v>12.42</v>
       </c>
-      <c r="AE31" s="70">
+      <c r="AE31" s="63">
         <v>13.65</v>
       </c>
-      <c r="AF31" s="70">
+      <c r="AF31" s="63">
         <v>15.24</v>
       </c>
     </row>
@@ -10592,10 +10572,10 @@
       <c r="AA83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH83" s="60" t="s">
+      <c r="AH83" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="AI83" s="61"/>
+      <c r="AI83" s="73"/>
     </row>
     <row r="84" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10679,10 +10659,10 @@
       <c r="AA84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH84" s="62" t="s">
+      <c r="AH84" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="AI84" s="63"/>
+      <c r="AI84" s="75"/>
     </row>
     <row r="85" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11512,10 +11492,10 @@
       <c r="AA93" s="1">
         <v>-262000000</v>
       </c>
-      <c r="AH93" s="62" t="s">
+      <c r="AH93" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="AI93" s="63"/>
+      <c r="AI93" s="75"/>
     </row>
     <row r="94" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11604,7 +11584,7 @@
       </c>
       <c r="AI94" s="36">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7280000000000001E-2</v>
+        <v>3.712E-2</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11694,7 +11674,7 @@
       </c>
       <c r="AI95" s="54" cm="1">
         <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>1.2992999999999999</v>
+        <v>1.2966</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11873,7 +11853,7 @@
       </c>
       <c r="AI97" s="35">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>9.7983295999999998E-2</v>
+        <v>9.7904608000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -11958,10 +11938,10 @@
       <c r="AA98" s="1">
         <v>-515000000</v>
       </c>
-      <c r="AH98" s="62" t="s">
+      <c r="AH98" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="AI98" s="63"/>
+      <c r="AI98" s="75"/>
     </row>
     <row r="99" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12140,7 +12120,7 @@
       </c>
       <c r="AI100" s="33">
         <f>AI99/AI103</f>
-        <v>0.11138580988979349</v>
+        <v>0.11063806136451498</v>
       </c>
     </row>
     <row r="101" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12230,7 +12210,7 @@
       </c>
       <c r="AI101" s="47" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>62729475000</v>
+        <v>63206575000</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12320,7 +12300,7 @@
       </c>
       <c r="AI102" s="33">
         <f>AI101/AI103</f>
-        <v>0.88861419011020648</v>
+        <v>0.88936193863548496</v>
       </c>
     </row>
     <row r="103" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12410,7 +12390,7 @@
       </c>
       <c r="AI103" s="37">
         <f>AI99+AI101</f>
-        <v>70592475000</v>
+        <v>71069575000</v>
       </c>
     </row>
     <row r="104" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12495,10 +12475,10 @@
       <c r="AA104" s="11">
         <v>1769000000</v>
       </c>
-      <c r="AH104" s="62" t="s">
+      <c r="AH104" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="AI104" s="63"/>
+      <c r="AI104" s="75"/>
     </row>
     <row r="105" spans="1:35" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -12632,7 +12612,7 @@
       </c>
       <c r="AI105" s="26">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>8.9623975032035633E-2</v>
+        <v>8.9610110210981281E-2</v>
       </c>
     </row>
     <row r="106" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -12740,19 +12720,19 @@
         <f t="shared" ref="AA106" si="52">(AA107/Z107)-1</f>
         <v>-0.210075026795284</v>
       </c>
-      <c r="AB106" s="71">
+      <c r="AB106" s="64">
         <v>1842000000</v>
       </c>
-      <c r="AC106" s="71">
+      <c r="AC106" s="64">
         <v>2151000000</v>
       </c>
-      <c r="AD106" s="71">
+      <c r="AD106" s="64">
         <v>2465000000</v>
       </c>
-      <c r="AE106" s="71">
+      <c r="AE106" s="64">
         <v>2723000000</v>
       </c>
-      <c r="AF106" s="71">
+      <c r="AF106" s="64">
         <v>2987000000</v>
       </c>
       <c r="AG106" s="38" t="s">
@@ -12767,7 +12747,7 @@
       </c>
     </row>
     <row r="107" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="64" t="s">
+      <c r="A107" s="58" t="s">
         <v>159</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -12852,9 +12832,9 @@
       <c r="AC107" s="38"/>
       <c r="AD107" s="38"/>
       <c r="AE107" s="38"/>
-      <c r="AF107" s="72">
+      <c r="AF107" s="65">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>47376766880.747513</v>
+        <v>47386933561.98037</v>
       </c>
       <c r="AG107" s="41" t="s">
         <v>144</v>
@@ -12867,25 +12847,25 @@
       </c>
     </row>
     <row r="108" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB108" s="72">
+      <c r="AB108" s="65">
         <f t="shared" ref="AB108:AD108" si="53">AB107+AB106</f>
         <v>1842000000</v>
       </c>
-      <c r="AC108" s="72">
+      <c r="AC108" s="65">
         <f t="shared" si="53"/>
         <v>2151000000</v>
       </c>
-      <c r="AD108" s="72">
+      <c r="AD108" s="65">
         <f t="shared" si="53"/>
         <v>2465000000</v>
       </c>
-      <c r="AE108" s="72">
+      <c r="AE108" s="65">
         <f>AE107+AE106</f>
         <v>2723000000</v>
       </c>
-      <c r="AF108" s="72">
+      <c r="AF108" s="65">
         <f>AF107+AF106</f>
-        <v>50363766880.747513</v>
+        <v>50373933561.98037</v>
       </c>
       <c r="AG108" s="41" t="s">
         <v>141</v>
@@ -12895,14 +12875,14 @@
       </c>
       <c r="AI108" s="45">
         <f>AI105</f>
-        <v>8.9623975032035633E-2</v>
+        <v>8.9610110210981281E-2</v>
       </c>
     </row>
     <row r="109" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB109" s="58" t="s">
+      <c r="AB109" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="AC109" s="59"/>
+      <c r="AC109" s="71"/>
     </row>
     <row r="110" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="AB110" s="46" t="s">
@@ -12910,7 +12890,7 @@
       </c>
       <c r="AC110" s="47">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>40128816448.833672</v>
+        <v>40137760816.88401</v>
       </c>
     </row>
     <row r="111" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12937,7 +12917,7 @@
       </c>
       <c r="AC113" s="47">
         <f>AC110+AC111-AC112</f>
-        <v>34124816448.833672</v>
+        <v>34133760816.88401</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12955,7 +12935,7 @@
       </c>
       <c r="AC115" s="57">
         <f>AC113/AC114</f>
-        <v>187.76526467240964</v>
+        <v>187.81447934399085</v>
       </c>
     </row>
     <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12964,7 +12944,7 @@
       </c>
       <c r="AC116" s="56" cm="1">
         <f t="array" ref="AC116">_FV(A1,"Price")</f>
-        <v>341.85</v>
+        <v>344.45</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12973,7 +12953,7 @@
       </c>
       <c r="AC117" s="51">
         <f>AC115/AC116-1</f>
-        <v>-0.45073785381772813</v>
+        <v>-0.45474095124403868</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">

--- a/Financial Services/Moodys.xlsx
+++ b/Financial Services/Moodys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20C28D3-9C1D-EC47-AAF6-28FE2AC8381F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881EE778-73CF-324E-BE24-3726902405B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -750,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -856,62 +856,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -928,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -970,90 +917,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1065,22 +958,57 @@
     <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1133,7 +1061,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>MCO</a:t>
+              <a:t>Moody's</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2355,9 +2283,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2366,19 +2292,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
+      <sheetName val="My Stocks"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
-      <sheetName val="Private Companies"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2389,22 +2318,11 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="8">
-          <cell r="C8">
-            <v>3.712E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2532,9 +2450,9 @@
     <v>Powered by Refinitiv</v>
     <v>351.06</v>
     <v>230.16</v>
-    <v>1.2966</v>
-    <v>2.86</v>
-    <v>8.3730000000000002E-3</v>
+    <v>1.3055000000000001</v>
+    <v>-2.65</v>
+    <v>-7.744E-3</v>
     <v>USD</v>
     <v>Moody's Corporation is a global integrated risk assessment company. The Company operates through two segments: Moody's Investors Service (MIS), and Moody's Analytics (MA). The MIS segment publishes credit ratings and provides assessment services on a range of debt obligations, programs and facilities, and the entities that issue such obligations in markets worldwide, including various corporate, financial institution and governmental obligations, and structured finance securities. The MIS segment consists of five lines of business, which include corporate finance group; structured finance group; financial institutions group; public, project and infrastructure finance, and MIS Other. The MA segment develops a range of products and services that support the risk management activities of institutional participants in global financial markets. The MA segment consists of three lines of business, such as decision solutions, research and insights, and data and information.</v>
     <v>14419</v>
@@ -2542,24 +2460,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>7 World Trade Ctr, NEW YORK, NY, 10007-2140 US</v>
-    <v>344.83499999999998</v>
+    <v>344.44</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45106.958333344533</v>
+    <v>45114.996496712498</v>
     <v>0</v>
-    <v>340.42</v>
-    <v>63206575000</v>
+    <v>338.8</v>
+    <v>62311090000</v>
     <v>MOODY'S CORPORATION</v>
     <v>MOODY'S CORPORATION</v>
-    <v>341.88</v>
-    <v>44.534500000000001</v>
-    <v>341.59</v>
-    <v>344.45</v>
+    <v>339.68</v>
+    <v>43.903500000000001</v>
+    <v>342.22</v>
+    <v>339.57</v>
     <v>183500000</v>
     <v>MCO</v>
     <v>MOODY'S CORPORATION (XNYS:MCO)</v>
-    <v>384459</v>
-    <v>817442</v>
+    <v>10</v>
+    <v>736580</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -3129,10 +3047,10 @@
   <dimension ref="A1:AJ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC100" sqref="AC100"/>
+      <selection pane="bottomRight" activeCell="AF99" sqref="AF99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3224,19 +3142,19 @@
       <c r="AA1" s="8">
         <v>2022</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1" s="23">
         <v>2023</v>
       </c>
-      <c r="AC1" s="27">
+      <c r="AC1" s="23">
         <v>2024</v>
       </c>
-      <c r="AD1" s="27">
+      <c r="AD1" s="23">
         <v>2025</v>
       </c>
-      <c r="AE1" s="27">
+      <c r="AE1" s="23">
         <v>2026</v>
       </c>
-      <c r="AF1" s="27">
+      <c r="AF1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3420,19 +3338,19 @@
       <c r="AA3" s="1">
         <v>5468000000</v>
       </c>
-      <c r="AB3" s="28">
+      <c r="AB3" s="24">
         <v>5898000000</v>
       </c>
-      <c r="AC3" s="28">
+      <c r="AC3" s="24">
         <v>6482000000</v>
       </c>
-      <c r="AD3" s="28">
+      <c r="AD3" s="24">
         <v>7103000000</v>
       </c>
-      <c r="AE3" s="28">
+      <c r="AE3" s="24">
         <v>7515000000</v>
       </c>
-      <c r="AF3" s="28">
+      <c r="AF3" s="24">
         <v>8099000000</v>
       </c>
       <c r="AG3" s="18" t="s">
@@ -3466,111 +3384,111 @@
         <v>-0.69454305710518316</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:Y4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:G4" si="0">(F3/E3)-1</f>
         <v>0.32276274281919304</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="0"/>
         <v>0.28442324588929324</v>
       </c>
-      <c r="H4" s="16">
-        <f t="shared" si="0"/>
+      <c r="H4" s="15">
+        <f t="shared" ref="H4" si="1">(H3/G3)-1</f>
         <v>0.21821557705462724</v>
       </c>
-      <c r="I4" s="16">
-        <f t="shared" si="0"/>
+      <c r="I4" s="15">
+        <f t="shared" ref="I4" si="2">(I3/H3)-1</f>
         <v>0.15377827691320389</v>
       </c>
-      <c r="J4" s="16">
-        <f t="shared" si="0"/>
+      <c r="J4" s="15">
+        <f t="shared" ref="J4" si="3">(J3/I3)-1</f>
         <v>0.20392129597441433</v>
       </c>
-      <c r="K4" s="16">
-        <f t="shared" si="0"/>
+      <c r="K4" s="15">
+        <f t="shared" ref="K4" si="4">(K3/J3)-1</f>
         <v>0.17642642642642636</v>
       </c>
-      <c r="L4" s="16">
-        <f t="shared" si="0"/>
+      <c r="L4" s="15">
+        <f t="shared" ref="L4" si="5">(L3/K3)-1</f>
         <v>0.10892936036522505</v>
       </c>
-      <c r="M4" s="16">
-        <f t="shared" si="0"/>
+      <c r="M4" s="15">
+        <f t="shared" ref="M4" si="6">(M3/L3)-1</f>
         <v>-0.22293050022133687</v>
       </c>
-      <c r="N4" s="16">
-        <f t="shared" si="0"/>
+      <c r="N4" s="15">
+        <f t="shared" ref="N4" si="7">(N3/M3)-1</f>
         <v>2.3812236527287256E-2</v>
       </c>
-      <c r="O4" s="16">
-        <f t="shared" si="0"/>
+      <c r="O4" s="15">
+        <f t="shared" ref="O4" si="8">(O3/N3)-1</f>
         <v>0.13064767415980416</v>
       </c>
-      <c r="P4" s="16">
-        <f t="shared" si="0"/>
+      <c r="P4" s="15">
+        <f t="shared" ref="P4" si="9">(P3/O3)-1</f>
         <v>0.12239173228346467</v>
       </c>
-      <c r="Q4" s="16">
-        <f t="shared" si="0"/>
+      <c r="Q4" s="15">
+        <f t="shared" ref="Q4" si="10">(Q3/P3)-1</f>
         <v>0.1971324593326611</v>
       </c>
-      <c r="R4" s="16">
-        <f t="shared" si="0"/>
+      <c r="R4" s="15">
+        <f t="shared" ref="R4" si="11">(R3/Q3)-1</f>
         <v>8.8708200564040496E-2</v>
       </c>
-      <c r="S4" s="16">
-        <f t="shared" si="0"/>
+      <c r="S4" s="15">
+        <f t="shared" ref="S4" si="12">(S3/R3)-1</f>
         <v>0.12171572750210258</v>
       </c>
-      <c r="T4" s="16">
-        <f t="shared" si="0"/>
+      <c r="T4" s="15">
+        <f t="shared" ref="T4" si="13">(T3/S3)-1</f>
         <v>4.5046936388447367E-2</v>
       </c>
-      <c r="U4" s="16">
-        <f t="shared" si="0"/>
+      <c r="U4" s="15">
+        <f t="shared" ref="U4" si="14">(U3/T3)-1</f>
         <v>3.4352130865260344E-2</v>
       </c>
-      <c r="V4" s="16">
-        <f t="shared" si="0"/>
+      <c r="V4" s="15">
+        <f t="shared" ref="V4" si="15">(V3/U3)-1</f>
         <v>0.16644470340158701</v>
       </c>
-      <c r="W4" s="16">
-        <f t="shared" si="0"/>
+      <c r="W4" s="15">
+        <f t="shared" ref="W4" si="16">(W3/V3)-1</f>
         <v>5.6754120977141387E-2</v>
       </c>
-      <c r="X4" s="16">
-        <f t="shared" si="0"/>
+      <c r="X4" s="15">
+        <f t="shared" ref="X4" si="17">(X3/W3)-1</f>
         <v>8.6951628514191803E-2</v>
       </c>
-      <c r="Y4" s="16">
-        <f t="shared" si="0"/>
+      <c r="Y4" s="15">
+        <f t="shared" ref="Y4" si="18">(Y3/X3)-1</f>
         <v>0.11223855870780697</v>
       </c>
-      <c r="Z4" s="16">
-        <f t="shared" ref="Z4" si="1">(Z3/Y3)-1</f>
+      <c r="Z4" s="15">
+        <f t="shared" ref="Z4" si="19">(Z3/Y3)-1</f>
         <v>0.15769875256004462</v>
       </c>
-      <c r="AA4" s="16">
-        <f t="shared" ref="AA4:AF4" si="2">(AA3/Z3)-1</f>
+      <c r="AA4" s="15">
+        <f t="shared" ref="AA4" si="20">(AA3/Z3)-1</f>
         <v>-0.12061756191701511</v>
       </c>
       <c r="AB4" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AB4:AF4" si="21">(AB3/AA3)-1</f>
         <v>7.8639356254571968E-2</v>
       </c>
       <c r="AC4" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>9.9016615801966745E-2</v>
       </c>
       <c r="AD4" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>9.5803764270286917E-2</v>
       </c>
       <c r="AE4" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>5.8003660425172354E-2</v>
       </c>
       <c r="AF4" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>7.7711244178310102E-2</v>
       </c>
       <c r="AG4" s="17">
@@ -3959,103 +3877,103 @@
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:AA9" si="3">C8/C3</f>
+        <f t="shared" ref="C9:AA9" si="22">C8/C3</f>
         <v>0</v>
       </c>
       <c r="D9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="S9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AA9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AG9" s="18" t="s">
@@ -4357,103 +4275,103 @@
         <v>#VALUE!</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:AA13" si="4">C12/C3</f>
+        <f t="shared" ref="C13:AA13" si="23">C12/C3</f>
         <v>0.40113724476608942</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.40130844913277208</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.17864851402955337</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.17773314924061756</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.17130851167790481</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.16332424193807155</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.16853229507056941</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.17550242550242551</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.17637818467429189</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.19969012837538733</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.2513956932892788</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.27581793901624752</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.28937007874015747</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.27605559696584381</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.27550086071127716</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.27656854499579481</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.26071439282608044</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.26439948342660352</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.25980800177570612</v>
       </c>
       <c r="V13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.23581741633167622</v>
       </c>
       <c r="W13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.24311792378508565</v>
       </c>
       <c r="X13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.24166494098156968</v>
       </c>
       <c r="Y13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.22882144851982872</v>
       </c>
       <c r="Z13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.23801865551624315</v>
       </c>
       <c r="AA13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.27926115581565469</v>
       </c>
       <c r="AG13" s="17">
@@ -4733,21 +4651,21 @@
       <c r="AA16" s="1">
         <v>3585000000</v>
       </c>
-      <c r="AG16" s="29">
+      <c r="AG16" s="25">
         <f>(AA35+Z35+Y35+X35+W35)/5</f>
         <v>-6.5546539360924819E-3</v>
       </c>
-      <c r="AH16" s="30">
+      <c r="AH16" s="26">
         <f>AI101/AA3</f>
-        <v>11.559358997805413</v>
-      </c>
-      <c r="AI16" s="30">
+        <v>11.395590709583029</v>
+      </c>
+      <c r="AI16" s="26">
         <f>AI101/AA28</f>
-        <v>46.001874090247455</v>
-      </c>
-      <c r="AJ16" s="31">
+        <v>45.350138282387192</v>
+      </c>
+      <c r="AJ16" s="27">
         <f>AI101/AA107</f>
-        <v>42.880987109905021</v>
+        <v>42.273466757123472</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -5010,36 +4928,36 @@
       <c r="AA19" s="10">
         <v>1883000000</v>
       </c>
-      <c r="AB19" s="59">
+      <c r="AB19" s="33">
         <v>2601000000</v>
       </c>
-      <c r="AC19" s="59">
+      <c r="AC19" s="33">
         <v>3007000000</v>
       </c>
-      <c r="AD19" s="59">
+      <c r="AD19" s="33">
         <v>3400000000</v>
       </c>
-      <c r="AE19" s="59">
+      <c r="AE19" s="33">
         <v>3640000000</v>
       </c>
-      <c r="AF19" s="59">
+      <c r="AF19" s="33">
         <v>3997000000</v>
       </c>
-      <c r="AG19" s="53">
+      <c r="AG19" s="30">
         <f>AA40-AA56-AA61</f>
         <v>-6004000000</v>
       </c>
-      <c r="AH19" s="66">
+      <c r="AH19" s="40">
         <f>AI101/AB3</f>
-        <v>10.716611563241777</v>
-      </c>
-      <c r="AI19" s="66">
+        <v>10.564782977280434</v>
+      </c>
+      <c r="AI19" s="40">
         <f>AI101/AB28</f>
-        <v>35.212576601671309</v>
-      </c>
-      <c r="AJ19" s="67">
+        <v>34.713699164345407</v>
+      </c>
+      <c r="AJ19" s="41">
         <f>AI101/AB106</f>
-        <v>34.314101520086865</v>
+        <v>33.827953311617804</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5060,111 +4978,111 @@
         <v>-0.47794373046196592</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:T20" si="5">(F19/E19)-1</f>
+        <f t="shared" ref="F20:T20" si="24">(F19/E19)-1</f>
         <v>0.32701264138389896</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0.3587365254449737</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0.27121771217712176</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0.16894049346879525</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0.20424633722373975</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0.34034436539849477</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>-0.10799999999999998</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>-0.30933080372542254</v>
       </c>
       <c r="N20" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>-7.4666000749157191E-2</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0.12090136283902297</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0.17948717948717952</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0.20106144111043078</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0.14598912304554723</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0.23298235206881213</v>
       </c>
       <c r="T20" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>-3.1994226605725262E-2</v>
       </c>
       <c r="U20" s="15">
-        <f t="shared" ref="U20" si="6">(U19/T19)-1</f>
+        <f t="shared" ref="U20" si="25">(U19/T19)-1</f>
         <v>-0.48794731610337971</v>
       </c>
       <c r="V20" s="15">
-        <f t="shared" ref="V20" si="7">(V19/U19)-1</f>
+        <f t="shared" ref="V20" si="26">(V19/U19)-1</f>
         <v>1.5993690851735014</v>
       </c>
       <c r="W20" s="15">
-        <f t="shared" ref="W20" si="8">(W19/V19)-1</f>
+        <f t="shared" ref="W20" si="27">(W19/V19)-1</f>
         <v>-2.7352501867064949E-2</v>
       </c>
       <c r="X20" s="15">
-        <f t="shared" ref="X20" si="9">(X19/W19)-1</f>
+        <f t="shared" ref="X20" si="28">(X19/W19)-1</f>
         <v>6.9200499088204248E-2</v>
       </c>
       <c r="Y20" s="15">
-        <f t="shared" ref="Y20" si="10">(Y19/X19)-1</f>
+        <f t="shared" ref="Y20" si="29">(Y19/X19)-1</f>
         <v>0.196588868940754</v>
       </c>
       <c r="Z20" s="15">
-        <f t="shared" ref="Z20" si="11">(Z19/Y19)-1</f>
+        <f t="shared" ref="Z20" si="30">(Z19/Y19)-1</f>
         <v>0.20517629407351845</v>
       </c>
       <c r="AA20" s="15">
-        <f t="shared" ref="AA20" si="12">(AA19/Z19)-1</f>
+        <f t="shared" ref="AA20" si="31">(AA19/Z19)-1</f>
         <v>-0.41394335511982572</v>
       </c>
       <c r="AB20" s="16">
-        <f t="shared" ref="AB20" si="13">(AB19/AA19)-1</f>
+        <f t="shared" ref="AB20" si="32">(AB19/AA19)-1</f>
         <v>0.38130642591609143</v>
       </c>
       <c r="AC20" s="16">
-        <f t="shared" ref="AC20" si="14">(AC19/AB19)-1</f>
+        <f t="shared" ref="AC20" si="33">(AC19/AB19)-1</f>
         <v>0.1560938100730489</v>
       </c>
       <c r="AD20" s="16">
-        <f t="shared" ref="AD20" si="15">(AD19/AC19)-1</f>
+        <f t="shared" ref="AD20" si="34">(AD19/AC19)-1</f>
         <v>0.13069504489524442</v>
       </c>
       <c r="AE20" s="16">
-        <f t="shared" ref="AE20" si="16">(AE19/AD19)-1</f>
+        <f t="shared" ref="AE20" si="35">(AE19/AD19)-1</f>
         <v>7.0588235294117618E-2</v>
       </c>
       <c r="AF20" s="16">
-        <f t="shared" ref="AF20" si="17">(AF19/AE19)-1</f>
+        <f t="shared" ref="AF20" si="36">(AF19/AE19)-1</f>
         <v>9.8076923076923173E-2</v>
       </c>
     </row>
@@ -5250,24 +5168,24 @@
       <c r="AA21" s="2">
         <v>0.34439999999999998</v>
       </c>
-      <c r="AB21" s="60">
+      <c r="AB21" s="34">
         <f>AB19/AB3</f>
         <v>0.4409969481180061</v>
       </c>
-      <c r="AC21" s="60">
-        <f t="shared" ref="AC21:AF21" si="18">AC19/AC3</f>
+      <c r="AC21" s="34">
+        <f t="shared" ref="AC21:AF21" si="37">AC19/AC3</f>
         <v>0.46390003085467446</v>
       </c>
-      <c r="AD21" s="60">
-        <f t="shared" si="18"/>
+      <c r="AD21" s="34">
+        <f t="shared" si="37"/>
         <v>0.47867098409122905</v>
       </c>
-      <c r="AE21" s="60">
-        <f t="shared" si="18"/>
+      <c r="AE21" s="34">
+        <f t="shared" si="37"/>
         <v>0.48436460412508314</v>
       </c>
-      <c r="AF21" s="60">
-        <f t="shared" si="18"/>
+      <c r="AF21" s="34">
+        <f t="shared" si="37"/>
         <v>0.49351771823681934</v>
       </c>
       <c r="AI21" s="18" t="s">
@@ -5359,13 +5277,13 @@
       <c r="AA22" s="10">
         <v>1883000000</v>
       </c>
-      <c r="AI22" s="68">
+      <c r="AI22" s="42">
         <f>(-1*AA98)/AI101</f>
-        <v>8.1478865133888367E-3</v>
-      </c>
-      <c r="AJ22" s="69">
+        <v>8.2649814021869949E-3</v>
+      </c>
+      <c r="AJ22" s="43">
         <f>AA107/AI101</f>
-        <v>2.3320358681039117E-2</v>
+        <v>2.3655500168589572E-2</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -5865,19 +5783,19 @@
       <c r="AA28" s="11">
         <v>1374000000</v>
       </c>
-      <c r="AB28" s="61">
+      <c r="AB28" s="35">
         <v>1795000000</v>
       </c>
-      <c r="AC28" s="61">
+      <c r="AC28" s="35">
         <v>2028000000</v>
       </c>
-      <c r="AD28" s="61">
+      <c r="AD28" s="35">
         <v>2280000000</v>
       </c>
-      <c r="AE28" s="61">
+      <c r="AE28" s="35">
         <v>2504000000</v>
       </c>
-      <c r="AF28" s="61">
+      <c r="AF28" s="35">
         <v>2797000000</v>
       </c>
     </row>
@@ -5899,111 +5817,111 @@
         <v>-0.380859375</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:T29" si="19">(F28/E28)-1</f>
+        <f t="shared" ref="F29:T29" si="38">(F28/E28)-1</f>
         <v>0.33880126182965298</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>0.3614514608859567</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>0.25960539979231578</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>0.16817807089859849</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>0.31921900729240171</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>0.34432952924393723</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>-6.950523942167397E-2</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>-0.34768353528153961</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>-0.12150349650349646</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>0.26318407960198997</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>0.12524615990547461</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>0.20756037801890104</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>0.16594202898550714</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>0.22896208825357367</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>-4.7941741680995298E-2</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" ref="U29" si="20">(U28/T28)-1</f>
+        <f t="shared" ref="U29" si="39">(U28/T28)-1</f>
         <v>-0.71677467332412625</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" ref="V29" si="21">(V28/U28)-1</f>
+        <f t="shared" ref="V29" si="40">(V28/U28)-1</f>
         <v>2.7531882970742685</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" ref="W29" si="22">(W28/V28)-1</f>
+        <f t="shared" ref="W29" si="41">(W28/V28)-1</f>
         <v>0.30881471117329595</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" ref="X29" si="23">(X28/W28)-1</f>
+        <f t="shared" ref="X29" si="42">(X28/W28)-1</f>
         <v>8.5827733659132655E-2</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" ref="Y29" si="24">(Y28/X28)-1</f>
+        <f t="shared" ref="Y29" si="43">(Y28/X28)-1</f>
         <v>0.25035161744022494</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" ref="Z29" si="25">(Z28/Y28)-1</f>
+        <f t="shared" ref="Z29" si="44">(Z28/Y28)-1</f>
         <v>0.24521934758155228</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" ref="AA29" si="26">(AA28/Z28)-1</f>
+        <f t="shared" ref="AA29" si="45">(AA28/Z28)-1</f>
         <v>-0.37940379403794033</v>
       </c>
       <c r="AB29" s="16">
-        <f t="shared" ref="AB29" si="27">(AB28/AA28)-1</f>
+        <f t="shared" ref="AB29" si="46">(AB28/AA28)-1</f>
         <v>0.30640465793304217</v>
       </c>
       <c r="AC29" s="16">
-        <f t="shared" ref="AC29" si="28">(AC28/AB28)-1</f>
+        <f t="shared" ref="AC29" si="47">(AC28/AB28)-1</f>
         <v>0.1298050139275766</v>
       </c>
       <c r="AD29" s="16">
-        <f t="shared" ref="AD29" si="29">(AD28/AC28)-1</f>
+        <f t="shared" ref="AD29" si="48">(AD28/AC28)-1</f>
         <v>0.12426035502958577</v>
       </c>
       <c r="AE29" s="16">
-        <f t="shared" ref="AE29" si="30">(AE28/AD28)-1</f>
+        <f t="shared" ref="AE29" si="49">(AE28/AD28)-1</f>
         <v>9.8245614035087803E-2</v>
       </c>
       <c r="AF29" s="16">
-        <f t="shared" ref="AF29" si="31">(AF28/AE28)-1</f>
+        <f t="shared" ref="AF29" si="50">(AF28/AE28)-1</f>
         <v>0.11701277955271561</v>
       </c>
     </row>
@@ -6089,24 +6007,24 @@
       <c r="AA30" s="2">
         <v>0.25130000000000002</v>
       </c>
-      <c r="AB30" s="62">
+      <c r="AB30" s="36">
         <f>AB28/AB3</f>
         <v>0.30434045439131907</v>
       </c>
-      <c r="AC30" s="62">
-        <f t="shared" ref="AC30:AF30" si="32">AC28/AC3</f>
+      <c r="AC30" s="36">
+        <f t="shared" ref="AC30:AF30" si="51">AC28/AC3</f>
         <v>0.31286639925948784</v>
       </c>
-      <c r="AD30" s="62">
-        <f t="shared" si="32"/>
+      <c r="AD30" s="36">
+        <f t="shared" si="51"/>
         <v>0.32099113050823597</v>
       </c>
-      <c r="AE30" s="62">
-        <f t="shared" si="32"/>
+      <c r="AE30" s="36">
+        <f t="shared" si="51"/>
         <v>0.33320026613439785</v>
       </c>
-      <c r="AF30" s="62">
-        <f t="shared" si="32"/>
+      <c r="AF30" s="36">
+        <f t="shared" si="51"/>
         <v>0.3453512779355476</v>
       </c>
     </row>
@@ -6192,19 +6110,19 @@
       <c r="AA31" s="12">
         <v>7.37</v>
       </c>
-      <c r="AB31" s="63">
+      <c r="AB31" s="37">
         <v>9.7799999999999994</v>
       </c>
-      <c r="AC31" s="63">
+      <c r="AC31" s="37">
         <v>11.05</v>
       </c>
-      <c r="AD31" s="63">
+      <c r="AD31" s="37">
         <v>12.42</v>
       </c>
-      <c r="AE31" s="63">
+      <c r="AE31" s="37">
         <v>13.65</v>
       </c>
-      <c r="AF31" s="63">
+      <c r="AF31" s="37">
         <v>15.24</v>
       </c>
     </row>
@@ -6467,99 +6385,99 @@
         <v>#VALUE!</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:T35" si="33">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:T35" si="52">(D34-C34)/C34</f>
         <v>-4.320833066399539E-2</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>-7.8157337293954365E-3</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>-1.7177914110429449E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>-1.6853932584269662E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>-3.3015873015873019E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>3.2829940906106371E-3</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>-4.4829842931937175E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>-6.7488866050017124E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>-9.8824393828067597E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>-3.0574806359559722E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>-5.0462573591253156E-3</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>-3.0431107354184278E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>-1.2205754141238012E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>-1.3680494263018535E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>-3.9373601789709174E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>-5.2631578947368418E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" ref="U35" si="34">(U34-T34)/T34</f>
+        <f t="shared" ref="U35" si="53">(U34-T34)/T34</f>
         <v>-3.9331366764995081E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" ref="V35" si="35">(V34-U34)/U34</f>
+        <f t="shared" ref="V35" si="54">(V34-U34)/U34</f>
         <v>-6.1412487205731829E-3</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" ref="W35" si="36">(W34-V34)/V34</f>
+        <f t="shared" ref="W35" si="55">(W34-V34)/V34</f>
         <v>1.0298661174047373E-3</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" ref="X35" si="37">(X34-W34)/W34</f>
+        <f t="shared" ref="X35" si="56">(X34-W34)/W34</f>
         <v>-1.4403292181069959E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" ref="Y35" si="38">(Y34-X34)/X34</f>
+        <f t="shared" ref="Y35" si="57">(Y34-X34)/X34</f>
         <v>-1.2004175365344467E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" ref="Z35" si="39">(Z34-Y34)/Y34</f>
+        <f t="shared" ref="Z35" si="58">(Z34-Y34)/Y34</f>
         <v>-7.3956682514527208E-3</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" ref="AA35" si="40">(AA34-Z34)/Z34</f>
+        <f t="shared" ref="AA35" si="59">(AA34-Z34)/Z34</f>
         <v>0</v>
       </c>
     </row>
@@ -10220,107 +10138,107 @@
         <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AA80" si="41">B79/B3</f>
+        <f t="shared" ref="B80:AA80" si="60">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>3.1938571110616515E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>2.7854330708661418E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>2.486078835445258E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>2.362377760685639E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>2.2573591253153912E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>2.4113007227903906E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>2.5025111206772852E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>2.7218245380389545E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>2.9233367427035514E-2</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>2.932901163706755E-2</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>2.8163180782770761E-2</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>2.8672500465462668E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>2.8144097780636861E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="60"/>
         <v>3.0907095830285298E-2</v>
       </c>
     </row>
@@ -10572,10 +10490,10 @@
       <c r="AA83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH83" s="72" t="s">
+      <c r="AH83" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="AI83" s="73"/>
+      <c r="AI83" s="67"/>
     </row>
     <row r="84" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10659,10 +10577,10 @@
       <c r="AA84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH84" s="74" t="s">
+      <c r="AH84" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="AI84" s="75"/>
+      <c r="AI84" s="68"/>
     </row>
     <row r="85" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10746,10 +10664,10 @@
       <c r="AA85" s="1">
         <v>20000000</v>
       </c>
-      <c r="AH85" s="23" t="s">
+      <c r="AH85" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="AI85" s="24">
+      <c r="AI85" s="45">
         <f>AA17</f>
         <v>231000000</v>
       </c>
@@ -10836,10 +10754,10 @@
       <c r="AA86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH86" s="23" t="s">
+      <c r="AH86" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="AI86" s="24">
+      <c r="AI86" s="45">
         <f>AA56</f>
         <v>106000000</v>
       </c>
@@ -10926,10 +10844,10 @@
       <c r="AA87" s="10">
         <v>1474000000</v>
       </c>
-      <c r="AH87" s="23" t="s">
+      <c r="AH87" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="AI87" s="24">
+      <c r="AI87" s="45">
         <f>AA61</f>
         <v>7757000000</v>
       </c>
@@ -11016,10 +10934,10 @@
       <c r="AA88" s="1">
         <v>-283000000</v>
       </c>
-      <c r="AH88" s="32" t="s">
+      <c r="AH88" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="AI88" s="33">
+      <c r="AI88" s="47">
         <f>AI85/(AI86+AI87)</f>
         <v>2.9378099961846624E-2</v>
       </c>
@@ -11029,113 +10947,113 @@
         <v>104</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AA89" si="42">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:AA89" si="61">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>2.8637890927888342E-2</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>2.2365351455522871E-2</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>2.0421716752448946E-2</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>1.8576628592945902E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>1.7687872569139059E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>1.4359056634044602E-2</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>1.4809149690606966E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>1.8075768075768075E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>1.5266800844337538E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>8.0478087649402397E-2</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>4.8080209638828759E-2</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>5.0411751613621186E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>3.8681102362204726E-2</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>2.9464638049721575E-2</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>1.6298575248141229E-2</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>1.4129520605550883E-2</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>2.2283537774045528E-2</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>2.5426890515138471E-2</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>3.204594639587148E-2</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>2.1550391284698271E-2</v>
       </c>
       <c r="W89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>2.0483039593040268E-2</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>1.4288672603023401E-2</v>
       </c>
       <c r="Y89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>1.9177061999627629E-2</v>
       </c>
       <c r="Z89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>2.2354454808620135E-2</v>
       </c>
       <c r="AA89" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>5.1755669348939284E-2</v>
       </c>
-      <c r="AH89" s="23" t="s">
+      <c r="AH89" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="AI89" s="24">
+      <c r="AI89" s="45">
         <f>AA27</f>
         <v>386000000</v>
       </c>
@@ -11222,10 +11140,10 @@
       <c r="AA90" s="1">
         <v>-97000000</v>
       </c>
-      <c r="AH90" s="23" t="s">
+      <c r="AH90" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AI90" s="24">
+      <c r="AI90" s="45">
         <f>AA25</f>
         <v>1760000000</v>
       </c>
@@ -11312,10 +11230,10 @@
       <c r="AA91" s="1">
         <v>-320000000</v>
       </c>
-      <c r="AH91" s="32" t="s">
+      <c r="AH91" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="AI91" s="33">
+      <c r="AI91" s="47">
         <f>AI89/AI90</f>
         <v>0.21931818181818183</v>
       </c>
@@ -11402,10 +11320,10 @@
       <c r="AA92" s="1">
         <v>438000000</v>
       </c>
-      <c r="AH92" s="34" t="s">
+      <c r="AH92" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="AI92" s="35">
+      <c r="AI92" s="47">
         <f>AI88*(1-AI91)</f>
         <v>2.2934948492941625E-2</v>
       </c>
@@ -11492,10 +11410,10 @@
       <c r="AA93" s="1">
         <v>-262000000</v>
       </c>
-      <c r="AH93" s="74" t="s">
+      <c r="AH93" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="AI93" s="75"/>
+      <c r="AI93" s="68"/>
     </row>
     <row r="94" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11579,12 +11497,12 @@
       <c r="AA94" s="10">
         <v>-262000000</v>
       </c>
-      <c r="AH94" s="23" t="s">
+      <c r="AH94" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="AI94" s="36">
+      <c r="AI94" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.712E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11669,12 +11587,12 @@
       <c r="AA95" s="1">
         <v>-626000000</v>
       </c>
-      <c r="AH95" s="23" t="s">
+      <c r="AH95" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="AI95" s="54" cm="1">
+      <c r="AI95" s="49" cm="1">
         <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>1.2966</v>
+        <v>1.3055000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11759,10 +11677,10 @@
       <c r="AA96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH96" s="23" t="s">
+      <c r="AH96" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="AI96" s="36">
+      <c r="AI96" s="48">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -11848,12 +11766,12 @@
       <c r="AA97" s="1">
         <v>-983000000</v>
       </c>
-      <c r="AH97" s="34" t="s">
+      <c r="AH97" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="AI97" s="35">
+      <c r="AI97" s="47">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>9.7904608000000004E-2</v>
+        <v>9.7295360000000011E-2</v>
       </c>
     </row>
     <row r="98" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -11938,10 +11856,10 @@
       <c r="AA98" s="1">
         <v>-515000000</v>
       </c>
-      <c r="AH98" s="74" t="s">
+      <c r="AH98" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="AI98" s="75"/>
+      <c r="AI98" s="68"/>
     </row>
     <row r="99" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12025,10 +11943,10 @@
       <c r="AA99" s="1">
         <v>-1208000000</v>
       </c>
-      <c r="AH99" s="23" t="s">
+      <c r="AH99" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="AI99" s="24">
+      <c r="AI99" s="45">
         <f>AI86+AI87</f>
         <v>7863000000</v>
       </c>
@@ -12115,12 +12033,12 @@
       <c r="AA100" s="10">
         <v>-1208000000</v>
       </c>
-      <c r="AH100" s="32" t="s">
+      <c r="AH100" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="AI100" s="33">
+      <c r="AI100" s="47">
         <f>AI99/AI103</f>
-        <v>0.11063806136451498</v>
+        <v>0.11204990331901703</v>
       </c>
     </row>
     <row r="101" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12205,12 +12123,12 @@
       <c r="AA101" s="1">
         <v>-46000000</v>
       </c>
-      <c r="AH101" s="23" t="s">
+      <c r="AH101" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="AI101" s="47" cm="1">
+      <c r="AI101" s="50" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>63206575000</v>
+        <v>62311090000</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12295,12 +12213,12 @@
       <c r="AA102" s="10">
         <v>-42000000</v>
       </c>
-      <c r="AH102" s="32" t="s">
+      <c r="AH102" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="AI102" s="33">
+      <c r="AI102" s="47">
         <f>AI101/AI103</f>
-        <v>0.88936193863548496</v>
+        <v>0.88795009668098301</v>
       </c>
     </row>
     <row r="103" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12385,12 +12303,12 @@
       <c r="AA103" s="1">
         <v>1811000000</v>
       </c>
-      <c r="AH103" s="34" t="s">
+      <c r="AH103" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="AI103" s="37">
+      <c r="AI103" s="51">
         <f>AI99+AI101</f>
-        <v>71069575000</v>
+        <v>70174090000</v>
       </c>
     </row>
     <row r="104" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12475,144 +12393,144 @@
       <c r="AA104" s="11">
         <v>1769000000</v>
       </c>
-      <c r="AH104" s="74" t="s">
+      <c r="AH104" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="AI104" s="75"/>
+      <c r="AI104" s="68"/>
     </row>
     <row r="105" spans="1:35" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" ref="C105:Z105" si="43">((C22*(1-$AI$91))+C77+C88+C81)</f>
+        <f t="shared" ref="C105:Z105" si="62">((C22*(1-$AI$91))+C77+C88+C81)</f>
         <v>377391931.81818181</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>376805340.90909088</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>124026704.54545453</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>387201704.5454545</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>421584886.36363631</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>559970113.63636363</v>
       </c>
       <c r="I105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>611528181.81818175</v>
       </c>
       <c r="J105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>742328636.36363637</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>1163468750</v>
       </c>
       <c r="L105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>1067351136.3636364</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>546206136.36363637</v>
       </c>
       <c r="N105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>613918750</v>
       </c>
       <c r="O105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>625610909.090909</v>
       </c>
       <c r="P105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>798457727.27272725</v>
       </c>
       <c r="Q105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>835706590.90909088</v>
       </c>
       <c r="R105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>1050829772.7272726</v>
       </c>
       <c r="S105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>1119379204.5454545</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>1211256590.9090908</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>1459721477.2727273</v>
       </c>
       <c r="V105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>1021131477.2727273</v>
       </c>
       <c r="W105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>1477769772.7272727</v>
       </c>
       <c r="X105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>1586802272.7272727</v>
       </c>
       <c r="Y105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>2019268181.8181818</v>
       </c>
       <c r="Z105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="62"/>
         <v>1938259090.909091</v>
       </c>
       <c r="AA105" s="1">
         <f>((AA22*(1-$AI$91))+AA77+AA88+AA81)</f>
         <v>1091023863.6363635</v>
       </c>
-      <c r="AB105" s="55">
+      <c r="AB105" s="31">
         <f>AA105*(1+$AI$106)</f>
         <v>1180307723.1663246</v>
       </c>
-      <c r="AC105" s="55">
-        <f t="shared" ref="AC105:AF105" si="44">AB105*(1+$AI$106)</f>
+      <c r="AC105" s="31">
+        <f t="shared" ref="AC105:AF105" si="63">AB105*(1+$AI$106)</f>
         <v>1276898120.9290946</v>
       </c>
-      <c r="AD105" s="55">
-        <f t="shared" si="44"/>
+      <c r="AD105" s="31">
+        <f t="shared" si="63"/>
         <v>1381392986.956244</v>
       </c>
-      <c r="AE105" s="55">
-        <f t="shared" si="44"/>
+      <c r="AE105" s="31">
+        <f t="shared" si="63"/>
         <v>1494439182.8405373</v>
       </c>
-      <c r="AF105" s="55">
-        <f t="shared" si="44"/>
+      <c r="AF105" s="31">
+        <f t="shared" si="63"/>
         <v>1616736506.0467291</v>
       </c>
-      <c r="AG105" s="38" t="s">
+      <c r="AG105" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="AH105" s="25" t="s">
+      <c r="AH105" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="AI105" s="26">
+      <c r="AI105" s="53">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>8.9610110210981281E-2</v>
+        <v>8.8963283079871794E-2</v>
       </c>
     </row>
     <row r="106" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -12641,113 +12559,113 @@
         <v>8.6449399656946868E-2</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" ref="H106:T106" si="45">(H107/G107)-1</f>
+        <f t="shared" ref="H106:T106" si="64">(H107/G107)-1</f>
         <v>0.42248184401641931</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>0.10632630410654831</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>0.3575441412520064</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>6.6213420041383309E-2</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>0.11200443581924047</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>-0.43866866118175019</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>0.22829224961137018</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>3.832941601880302E-2</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>0.28086366010795749</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>5.7775965198477497E-2</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>0.13674334918390962</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>6.72696438665914E-2</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>0.12775423728813551</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" ref="U106" si="46">(U107/T107)-1</f>
+        <f t="shared" ref="U106" si="65">(U107/T107)-1</f>
         <v>4.3490512868683107E-2</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" ref="V106" si="47">(V107/U107)-1</f>
+        <f t="shared" ref="V106" si="66">(V107/U107)-1</f>
         <v>-0.40867764875326307</v>
       </c>
       <c r="W106" s="15">
-        <f t="shared" ref="W106" si="48">(W107/V107)-1</f>
+        <f t="shared" ref="W106" si="67">(W107/V107)-1</f>
         <v>1.0866189678794336</v>
       </c>
       <c r="X106" s="15">
-        <f t="shared" ref="X106" si="49">(X107/W107)-1</f>
+        <f t="shared" ref="X106" si="68">(X107/W107)-1</f>
         <v>0.1716641132268184</v>
       </c>
       <c r="Y106" s="15">
-        <f t="shared" ref="Y106" si="50">(Y107/X107)-1</f>
+        <f t="shared" ref="Y106" si="69">(Y107/X107)-1</f>
         <v>0.27210460772104605</v>
       </c>
       <c r="Z106" s="15">
-        <f t="shared" ref="Z106" si="51">(Z107/Y107)-1</f>
+        <f t="shared" ref="Z106" si="70">(Z107/Y107)-1</f>
         <v>-8.6637298091042592E-2</v>
       </c>
       <c r="AA106" s="15">
-        <f t="shared" ref="AA106" si="52">(AA107/Z107)-1</f>
+        <f t="shared" ref="AA106" si="71">(AA107/Z107)-1</f>
         <v>-0.210075026795284</v>
       </c>
-      <c r="AB106" s="64">
+      <c r="AB106" s="38">
         <v>1842000000</v>
       </c>
-      <c r="AC106" s="64">
+      <c r="AC106" s="38">
         <v>2151000000</v>
       </c>
-      <c r="AD106" s="64">
+      <c r="AD106" s="38">
         <v>2465000000</v>
       </c>
-      <c r="AE106" s="64">
+      <c r="AE106" s="38">
         <v>2723000000</v>
       </c>
-      <c r="AF106" s="64">
+      <c r="AF106" s="38">
         <v>2987000000</v>
       </c>
-      <c r="AG106" s="38" t="s">
+      <c r="AG106" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="AH106" s="39" t="s">
+      <c r="AH106" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="AI106" s="40">
+      <c r="AI106" s="55">
         <f>(SUM(AB4:AF4)/5)</f>
         <v>8.1834928186061612E-2</v>
       </c>
     </row>
     <row r="107" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="58" t="s">
+      <c r="A107" s="32" t="s">
         <v>159</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -12828,139 +12746,139 @@
       <c r="AA107" s="1">
         <v>1474000000</v>
       </c>
-      <c r="AB107" s="38"/>
-      <c r="AC107" s="38"/>
-      <c r="AD107" s="38"/>
-      <c r="AE107" s="38"/>
-      <c r="AF107" s="65">
+      <c r="AB107" s="28"/>
+      <c r="AC107" s="28"/>
+      <c r="AD107" s="28"/>
+      <c r="AE107" s="28"/>
+      <c r="AF107" s="39">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>47386933561.98037</v>
-      </c>
-      <c r="AG107" s="41" t="s">
+        <v>47866132765.212288</v>
+      </c>
+      <c r="AG107" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="AH107" s="42" t="s">
+      <c r="AH107" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="AI107" s="43">
+      <c r="AI107" s="57">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB108" s="65">
-        <f t="shared" ref="AB108:AD108" si="53">AB107+AB106</f>
+      <c r="AB108" s="39">
+        <f t="shared" ref="AB108:AD108" si="72">AB107+AB106</f>
         <v>1842000000</v>
       </c>
-      <c r="AC108" s="65">
-        <f t="shared" si="53"/>
+      <c r="AC108" s="39">
+        <f t="shared" si="72"/>
         <v>2151000000</v>
       </c>
-      <c r="AD108" s="65">
-        <f t="shared" si="53"/>
+      <c r="AD108" s="39">
+        <f t="shared" si="72"/>
         <v>2465000000</v>
       </c>
-      <c r="AE108" s="65">
+      <c r="AE108" s="39">
         <f>AE107+AE106</f>
         <v>2723000000</v>
       </c>
-      <c r="AF108" s="65">
+      <c r="AF108" s="39">
         <f>AF107+AF106</f>
-        <v>50373933561.98037</v>
-      </c>
-      <c r="AG108" s="41" t="s">
+        <v>50853132765.212288</v>
+      </c>
+      <c r="AG108" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="AH108" s="44" t="s">
+      <c r="AH108" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="AI108" s="45">
+      <c r="AI108" s="55">
         <f>AI105</f>
-        <v>8.9610110210981281E-2</v>
+        <v>8.8963283079871794E-2</v>
       </c>
     </row>
     <row r="109" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB109" s="70" t="s">
+      <c r="AB109" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="AC109" s="71"/>
+      <c r="AC109" s="65"/>
     </row>
     <row r="110" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB110" s="46" t="s">
+      <c r="AB110" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="AC110" s="47">
+      <c r="AC110" s="50">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>40137760816.88401</v>
+        <v>40559365191.598091</v>
       </c>
     </row>
     <row r="111" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB111" s="46" t="s">
+      <c r="AB111" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="AC111" s="47">
+      <c r="AC111" s="50">
         <f>AA40</f>
         <v>1859000000</v>
       </c>
     </row>
     <row r="112" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB112" s="46" t="s">
+      <c r="AB112" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="AC112" s="47">
+      <c r="AC112" s="50">
         <f>AI99</f>
         <v>7863000000</v>
       </c>
     </row>
     <row r="113" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB113" s="46" t="s">
+      <c r="AB113" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="AC113" s="47">
+      <c r="AC113" s="50">
         <f>AC110+AC111-AC112</f>
-        <v>34133760816.88401</v>
+        <v>34555365191.598091</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB114" s="46" t="s">
+      <c r="AB114" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="AC114" s="48">
+      <c r="AC114" s="59">
         <f>AA34*(1+(5*AG16))</f>
         <v>181741902.6270411</v>
       </c>
     </row>
     <row r="115" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB115" s="49" t="s">
+      <c r="AB115" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="AC115" s="57">
+      <c r="AC115" s="61">
         <f>AC113/AC114</f>
-        <v>187.81447934399085</v>
+        <v>190.13427664235672</v>
       </c>
     </row>
     <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB116" s="46" t="s">
+      <c r="AB116" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="AC116" s="56" cm="1">
+      <c r="AC116" s="62" cm="1">
         <f t="array" ref="AC116">_FV(A1,"Price")</f>
-        <v>344.45</v>
+        <v>339.57</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB117" s="50" t="s">
+      <c r="AB117" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="AC117" s="51">
+      <c r="AC117" s="63">
         <f>AC115/AC116-1</f>
-        <v>-0.45474095124403868</v>
+        <v>-0.44007339681845647</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB118" s="50" t="s">
+      <c r="AB118" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="AC118" s="52" t="str">
+      <c r="AC118" s="64" t="str">
         <f>IF(AC115&gt;AC116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Financial Services/Moodys.xlsx
+++ b/Financial Services/Moodys.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881EE778-73CF-324E-BE24-3726902405B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6E7AFF-8CC4-EC47-9FBE-2E95149151DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -573,7 +573,13 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
   </si>
 </sst>
 </file>
@@ -589,7 +595,7 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -701,6 +707,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -875,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -922,20 +935,9 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
@@ -944,15 +946,10 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -961,55 +958,114 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1050,7 +1106,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1079,7 +1135,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -1099,15 +1155,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.3163636363636361E-2"/>
-          <c:y val="0.14971917804124144"/>
-          <c:w val="0.87923305785123962"/>
-          <c:h val="0.66482832015018634"/>
+          <c:x val="0.10035041322314049"/>
+          <c:y val="0.15115383770338744"/>
+          <c:w val="0.8256"/>
+          <c:h val="0.62623834452434923"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1159,12 +1215,111 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$1:$AF$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$3:$AA$3</c:f>
+              <c:f>'Sheet 1'!$C$3:$AF$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>1934500000</c:v>
                 </c:pt>
@@ -1239,13 +1394,28 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5468000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5970000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6588000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7185000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7571000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8124000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-56B2-2448-B6BC-AA140054441D}"/>
+              <c16:uniqueId val="{00000000-9745-8F4A-80C5-9104A1206A11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1254,11 +1424,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19:$B$19</c:f>
+              <c:f>'Sheet 1'!$A$28:$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>- -</c:v>
@@ -1299,93 +1469,207 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$1:$AF$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$19:$AA$19</c:f>
+              <c:f>'Sheet 1'!$C$28:$AF$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>575100000</c:v>
+                  <c:v>280100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>575800000</c:v>
+                  <c:v>256000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300600000</c:v>
+                  <c:v>158500000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>398900000</c:v>
+                  <c:v>212200000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>542000000</c:v>
+                  <c:v>288900000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>689000000</c:v>
+                  <c:v>363900000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>805400000</c:v>
+                  <c:v>425100000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>969900000</c:v>
+                  <c:v>560800000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1300000000</c:v>
+                  <c:v>753900000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1159600000</c:v>
+                  <c:v>701500000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>800900000</c:v>
+                  <c:v>457600000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>741100000</c:v>
+                  <c:v>402000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>830700000</c:v>
+                  <c:v>507800000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>979800000</c:v>
+                  <c:v>571400000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1176800000</c:v>
+                  <c:v>690000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1348600000</c:v>
+                  <c:v>804500000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1662800000</c:v>
+                  <c:v>988700000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1609600000</c:v>
+                  <c:v>941300000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>824200000</c:v>
+                  <c:v>266600000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2142400000</c:v>
+                  <c:v>1000600000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2083800000</c:v>
+                  <c:v>1309600000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2228000000</c:v>
+                  <c:v>1422000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2666000000</c:v>
+                  <c:v>1778000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3213000000</c:v>
+                  <c:v>2214000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1883000000</c:v>
+                  <c:v>1374000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1849000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2059000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2344000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2574000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2841000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-56B2-2448-B6BC-AA140054441D}"/>
+              <c16:uniqueId val="{00000001-9745-8F4A-80C5-9104A1206A11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1439,12 +1723,111 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$1:$AF$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$107:$AA$107</c:f>
+              <c:f>'Sheet 1'!$C$107:$AF$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>286800000</c:v>
                 </c:pt>
@@ -1519,13 +1902,28 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1474000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1902000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2209000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2470000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2604000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2829000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-56B2-2448-B6BC-AA140054441D}"/>
+              <c16:uniqueId val="{00000002-9745-8F4A-80C5-9104A1206A11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1537,13 +1935,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="499809600"/>
-        <c:axId val="499811328"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="474666271"/>
+        <c:axId val="474566047"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="499809600"/>
+        <c:axId val="474666271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1571,7 +1969,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1583,7 +1981,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499811328"/>
+        <c:crossAx val="474566047"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1591,7 +1989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="499811328"/>
+        <c:axId val="474566047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1639,7 +2037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499809600"/>
+        <c:crossAx val="474666271"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1657,10 +2055,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33392198867703521"/>
-          <c:y val="0.90129535630369662"/>
-          <c:w val="0.36389145571679571"/>
-          <c:h val="6.2258174448011766E-2"/>
+          <c:x val="0.32326944751740744"/>
+          <c:y val="0.90321849006366994"/>
+          <c:w val="0.37461812975857356"/>
+          <c:h val="5.9222828762442593E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1767,7 +2165,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2005,7 +2403,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2240,22 +2637,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D239728-4FCA-E0D2-FC7F-5C0986650D06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86EE0C4D-77FA-0F44-37E4-1CDAA3160B04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2292,19 +2689,25 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Fidelity Growth"/>
+      <sheetName val="IRA"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Best Mature"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="Hedge Fund Portfolio"/>
+      <sheetName val="Scored Portfolio"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>4.7350000000000003E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2323,6 +2726,12 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2448,36 +2857,36 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>351.06</v>
+    <v>363.19</v>
     <v>230.16</v>
-    <v>1.3055000000000001</v>
-    <v>-2.65</v>
-    <v>-7.744E-3</v>
+    <v>1.2835000000000001</v>
+    <v>-0.5</v>
+    <v>-1.5900000000000001E-3</v>
     <v>USD</v>
     <v>Moody's Corporation is a global integrated risk assessment company. The Company operates through two segments: Moody's Investors Service (MIS), and Moody's Analytics (MA). The MIS segment publishes credit ratings and provides assessment services on a range of debt obligations, programs and facilities, and the entities that issue such obligations in markets worldwide, including various corporate, financial institution and governmental obligations, and structured finance securities. The MIS segment consists of five lines of business, which include corporate finance group; structured finance group; financial institutions group; public, project and infrastructure finance, and MIS Other. The MA segment develops a range of products and services that support the risk management activities of institutional participants in global financial markets. The MA segment consists of three lines of business, such as decision solutions, research and insights, and data and information.</v>
-    <v>14419</v>
+    <v>14635</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>7 World Trade Ctr, NEW YORK, NY, 10007-2140 US</v>
-    <v>344.44</v>
+    <v>314.89499999999998</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45114.996496712498</v>
+    <v>45204.958333378905</v>
     <v>0</v>
-    <v>338.8</v>
-    <v>62311090000</v>
+    <v>311.60000000000002</v>
+    <v>57617165000</v>
     <v>MOODY'S CORPORATION</v>
     <v>MOODY'S CORPORATION</v>
-    <v>339.68</v>
-    <v>43.903500000000001</v>
-    <v>342.22</v>
-    <v>339.57</v>
+    <v>313.54000000000002</v>
+    <v>39.1815</v>
+    <v>314.49</v>
+    <v>313.99</v>
     <v>183500000</v>
     <v>MCO</v>
     <v>MOODY'S CORPORATION (XNYS:MCO)</v>
-    <v>10</v>
-    <v>736580</v>
+    <v>596221</v>
+    <v>586097</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -3044,13 +3453,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ118"/>
+  <dimension ref="A1:AJ119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF99" sqref="AF99"/>
+      <selection pane="bottomRight" activeCell="Z111" sqref="Z111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3339,19 +3748,19 @@
         <v>5468000000</v>
       </c>
       <c r="AB3" s="24">
-        <v>5898000000</v>
+        <v>5970000000</v>
       </c>
       <c r="AC3" s="24">
-        <v>6482000000</v>
+        <v>6588000000</v>
       </c>
       <c r="AD3" s="24">
-        <v>7103000000</v>
+        <v>7185000000</v>
       </c>
       <c r="AE3" s="24">
-        <v>7515000000</v>
+        <v>7571000000</v>
       </c>
       <c r="AF3" s="24">
-        <v>8099000000</v>
+        <v>8124000000</v>
       </c>
       <c r="AG3" s="18" t="s">
         <v>107</v>
@@ -3473,23 +3882,23 @@
       </c>
       <c r="AB4" s="16">
         <f t="shared" ref="AB4:AF4" si="21">(AB3/AA3)-1</f>
-        <v>7.8639356254571968E-2</v>
+        <v>9.1806876371616664E-2</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="21"/>
-        <v>9.9016615801966745E-2</v>
+        <v>0.10351758793969856</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="21"/>
-        <v>9.5803764270286917E-2</v>
+        <v>9.0619307832422669E-2</v>
       </c>
       <c r="AE4" s="16">
         <f t="shared" si="21"/>
-        <v>5.8003660425172354E-2</v>
+        <v>5.3723034098817068E-2</v>
       </c>
       <c r="AF4" s="16">
         <f t="shared" si="21"/>
-        <v>7.7711244178310102E-2</v>
+        <v>7.3041870294545008E-2</v>
       </c>
       <c r="AG4" s="17">
         <f>(AA4+Z4+Y4)/3</f>
@@ -4655,17 +5064,17 @@
         <f>(AA35+Z35+Y35+X35+W35)/5</f>
         <v>-6.5546539360924819E-3</v>
       </c>
-      <c r="AH16" s="26">
-        <f>AI101/AA3</f>
-        <v>11.395590709583029</v>
-      </c>
-      <c r="AI16" s="26">
-        <f>AI101/AA28</f>
-        <v>45.350138282387192</v>
-      </c>
-      <c r="AJ16" s="27">
-        <f>AI101/AA107</f>
-        <v>42.273466757123472</v>
+      <c r="AH16" s="33">
+        <f>AI102/AA3</f>
+        <v>10.537155267008046</v>
+      </c>
+      <c r="AI16" s="33">
+        <f>AI102/AA28</f>
+        <v>41.933890101892288</v>
+      </c>
+      <c r="AJ16" s="34">
+        <f>AI102/AA107</f>
+        <v>39.088985753052917</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -4928,36 +5337,36 @@
       <c r="AA19" s="10">
         <v>1883000000</v>
       </c>
-      <c r="AB19" s="33">
-        <v>2601000000</v>
-      </c>
-      <c r="AC19" s="33">
-        <v>3007000000</v>
-      </c>
-      <c r="AD19" s="33">
-        <v>3400000000</v>
-      </c>
-      <c r="AE19" s="33">
-        <v>3640000000</v>
-      </c>
-      <c r="AF19" s="33">
-        <v>3997000000</v>
-      </c>
-      <c r="AG19" s="30">
+      <c r="AB19" s="28">
+        <v>2657000000</v>
+      </c>
+      <c r="AC19" s="28">
+        <v>3063000000</v>
+      </c>
+      <c r="AD19" s="28">
+        <v>3415000000</v>
+      </c>
+      <c r="AE19" s="28">
+        <v>3697000000</v>
+      </c>
+      <c r="AF19" s="28">
+        <v>4003000000</v>
+      </c>
+      <c r="AG19" s="26">
         <f>AA40-AA56-AA61</f>
         <v>-6004000000</v>
       </c>
-      <c r="AH19" s="40">
-        <f>AI101/AB3</f>
-        <v>10.564782977280434</v>
-      </c>
-      <c r="AI19" s="40">
-        <f>AI101/AB28</f>
-        <v>34.713699164345407</v>
-      </c>
-      <c r="AJ19" s="41">
-        <f>AI101/AB106</f>
-        <v>33.827953311617804</v>
+      <c r="AH19" s="33">
+        <f>AI102/AB3</f>
+        <v>9.6511164154103852</v>
+      </c>
+      <c r="AI19" s="33">
+        <f>AI102/AB28</f>
+        <v>31.161257436452136</v>
+      </c>
+      <c r="AJ19" s="34">
+        <f>AI102/AB107</f>
+        <v>30.292936382754995</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5067,23 +5476,23 @@
       </c>
       <c r="AB20" s="16">
         <f t="shared" ref="AB20" si="32">(AB19/AA19)-1</f>
-        <v>0.38130642591609143</v>
+        <v>0.41104620286776417</v>
       </c>
       <c r="AC20" s="16">
         <f t="shared" ref="AC20" si="33">(AC19/AB19)-1</f>
-        <v>0.1560938100730489</v>
+        <v>0.1528039141889348</v>
       </c>
       <c r="AD20" s="16">
         <f t="shared" ref="AD20" si="34">(AD19/AC19)-1</f>
-        <v>0.13069504489524442</v>
+        <v>0.11492001305909239</v>
       </c>
       <c r="AE20" s="16">
         <f t="shared" ref="AE20" si="35">(AE19/AD19)-1</f>
-        <v>7.0588235294117618E-2</v>
+        <v>8.2576866764275225E-2</v>
       </c>
       <c r="AF20" s="16">
         <f t="shared" ref="AF20" si="36">(AF19/AE19)-1</f>
-        <v>9.8076923076923173E-2</v>
+        <v>8.2769813362185474E-2</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -5168,31 +5577,34 @@
       <c r="AA21" s="2">
         <v>0.34439999999999998</v>
       </c>
-      <c r="AB21" s="34">
+      <c r="AB21" s="29">
         <f>AB19/AB3</f>
-        <v>0.4409969481180061</v>
-      </c>
-      <c r="AC21" s="34">
+        <v>0.44505862646566163</v>
+      </c>
+      <c r="AC21" s="29">
         <f t="shared" ref="AC21:AF21" si="37">AC19/AC3</f>
-        <v>0.46390003085467446</v>
-      </c>
-      <c r="AD21" s="34">
+        <v>0.46493624772313297</v>
+      </c>
+      <c r="AD21" s="29">
         <f t="shared" si="37"/>
-        <v>0.47867098409122905</v>
-      </c>
-      <c r="AE21" s="34">
+        <v>0.47529575504523314</v>
+      </c>
+      <c r="AE21" s="29">
         <f t="shared" si="37"/>
-        <v>0.48436460412508314</v>
-      </c>
-      <c r="AF21" s="34">
+        <v>0.48831065909391097</v>
+      </c>
+      <c r="AF21" s="29">
         <f t="shared" si="37"/>
-        <v>0.49351771823681934</v>
+        <v>0.49273756770064009</v>
+      </c>
+      <c r="AH21" s="43" t="s">
+        <v>167</v>
       </c>
       <c r="AI21" s="18" t="s">
         <v>165</v>
       </c>
       <c r="AJ21" s="19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -5277,13 +5689,17 @@
       <c r="AA22" s="10">
         <v>1883000000</v>
       </c>
+      <c r="AH22" s="17">
+        <f>SUM(AB29:AF29)/5</f>
+        <v>0.15991001021882917</v>
+      </c>
       <c r="AI22" s="42">
-        <f>(-1*AA98)/AI101</f>
-        <v>8.2649814021869949E-3</v>
-      </c>
-      <c r="AJ22" s="43">
-        <f>AA107/AI101</f>
-        <v>2.3655500168589572E-2</v>
+        <f>(-1*AA98)/AI102</f>
+        <v>8.9383085752310094E-3</v>
+      </c>
+      <c r="AJ22" s="35">
+        <f>AB107/AI102</f>
+        <v>3.3010995941921126E-2</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -5783,20 +6199,20 @@
       <c r="AA28" s="11">
         <v>1374000000</v>
       </c>
-      <c r="AB28" s="35">
-        <v>1795000000</v>
-      </c>
-      <c r="AC28" s="35">
-        <v>2028000000</v>
-      </c>
-      <c r="AD28" s="35">
-        <v>2280000000</v>
-      </c>
-      <c r="AE28" s="35">
-        <v>2504000000</v>
-      </c>
-      <c r="AF28" s="35">
-        <v>2797000000</v>
+      <c r="AB28" s="30">
+        <v>1849000000</v>
+      </c>
+      <c r="AC28" s="30">
+        <v>2059000000</v>
+      </c>
+      <c r="AD28" s="30">
+        <v>2344000000</v>
+      </c>
+      <c r="AE28" s="30">
+        <v>2574000000</v>
+      </c>
+      <c r="AF28" s="30">
+        <v>2841000000</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5906,23 +6322,23 @@
       </c>
       <c r="AB29" s="16">
         <f t="shared" ref="AB29" si="46">(AB28/AA28)-1</f>
-        <v>0.30640465793304217</v>
+        <v>0.34570596797671027</v>
       </c>
       <c r="AC29" s="16">
         <f t="shared" ref="AC29" si="47">(AC28/AB28)-1</f>
-        <v>0.1298050139275766</v>
+        <v>0.11357490535424564</v>
       </c>
       <c r="AD29" s="16">
         <f t="shared" ref="AD29" si="48">(AD28/AC28)-1</f>
-        <v>0.12426035502958577</v>
+        <v>0.13841670713938803</v>
       </c>
       <c r="AE29" s="16">
         <f t="shared" ref="AE29" si="49">(AE28/AD28)-1</f>
-        <v>9.8245614035087803E-2</v>
+        <v>9.8122866894198024E-2</v>
       </c>
       <c r="AF29" s="16">
         <f t="shared" ref="AF29" si="50">(AF28/AE28)-1</f>
-        <v>0.11701277955271561</v>
+        <v>0.10372960372960383</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -6007,25 +6423,25 @@
       <c r="AA30" s="2">
         <v>0.25130000000000002</v>
       </c>
-      <c r="AB30" s="36">
+      <c r="AB30" s="31">
         <f>AB28/AB3</f>
-        <v>0.30434045439131907</v>
-      </c>
-      <c r="AC30" s="36">
+        <v>0.30971524288107205</v>
+      </c>
+      <c r="AC30" s="31">
         <f t="shared" ref="AC30:AF30" si="51">AC28/AC3</f>
-        <v>0.31286639925948784</v>
-      </c>
-      <c r="AD30" s="36">
+        <v>0.31253794778384941</v>
+      </c>
+      <c r="AD30" s="31">
         <f t="shared" si="51"/>
-        <v>0.32099113050823597</v>
-      </c>
-      <c r="AE30" s="36">
+        <v>0.32623521224773833</v>
+      </c>
+      <c r="AE30" s="31">
         <f t="shared" si="51"/>
-        <v>0.33320026613439785</v>
-      </c>
-      <c r="AF30" s="36">
+        <v>0.33998150838726721</v>
+      </c>
+      <c r="AF30" s="31">
         <f t="shared" si="51"/>
-        <v>0.3453512779355476</v>
+        <v>0.34970457902511076</v>
       </c>
     </row>
     <row r="31" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -6110,20 +6526,20 @@
       <c r="AA31" s="12">
         <v>7.37</v>
       </c>
-      <c r="AB31" s="37">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="AC31" s="37">
-        <v>11.05</v>
-      </c>
-      <c r="AD31" s="37">
-        <v>12.42</v>
-      </c>
-      <c r="AE31" s="37">
-        <v>13.65</v>
-      </c>
-      <c r="AF31" s="37">
-        <v>15.24</v>
+      <c r="AB31" s="32">
+        <v>10.08</v>
+      </c>
+      <c r="AC31" s="32">
+        <v>11.22</v>
+      </c>
+      <c r="AD31" s="32">
+        <v>12.78</v>
+      </c>
+      <c r="AE31" s="32">
+        <v>14.03</v>
+      </c>
+      <c r="AF31" s="32">
+        <v>15.49</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -10408,7 +10824,7 @@
         <v>34000000</v>
       </c>
     </row>
-    <row r="83" spans="1:35" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -10490,12 +10906,8 @@
       <c r="AA83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH83" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI83" s="67"/>
     </row>
-    <row r="84" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -10577,12 +10989,12 @@
       <c r="AA84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH84" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI84" s="68"/>
+      <c r="AH84" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI84" s="70"/>
     </row>
-    <row r="85" spans="1:35" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -10664,13 +11076,10 @@
       <c r="AA85" s="1">
         <v>20000000</v>
       </c>
-      <c r="AH85" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI85" s="45">
-        <f>AA17</f>
-        <v>231000000</v>
-      </c>
+      <c r="AH85" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI85" s="71"/>
     </row>
     <row r="86" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -10754,12 +11163,12 @@
       <c r="AA86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH86" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI86" s="45">
-        <f>AA56</f>
-        <v>106000000</v>
+      <c r="AH86" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI86" s="64">
+        <f>AA17</f>
+        <v>231000000</v>
       </c>
     </row>
     <row r="87" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -10844,12 +11253,12 @@
       <c r="AA87" s="10">
         <v>1474000000</v>
       </c>
-      <c r="AH87" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI87" s="45">
-        <f>AA61</f>
-        <v>7757000000</v>
+      <c r="AH87" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI87" s="64">
+        <f>AA56</f>
+        <v>106000000</v>
       </c>
     </row>
     <row r="88" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -10934,12 +11343,12 @@
       <c r="AA88" s="1">
         <v>-283000000</v>
       </c>
-      <c r="AH88" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI88" s="47">
-        <f>AI85/(AI86+AI87)</f>
-        <v>2.9378099961846624E-2</v>
+      <c r="AH88" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI88" s="64">
+        <f>AA61</f>
+        <v>7757000000</v>
       </c>
     </row>
     <row r="89" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -11050,12 +11459,12 @@
         <f t="shared" si="61"/>
         <v>5.1755669348939284E-2</v>
       </c>
-      <c r="AH89" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI89" s="45">
-        <f>AA27</f>
-        <v>386000000</v>
+      <c r="AH89" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI89" s="65">
+        <f>AI86/(AI87+AI88)</f>
+        <v>2.9378099961846624E-2</v>
       </c>
     </row>
     <row r="90" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11140,12 +11549,12 @@
       <c r="AA90" s="1">
         <v>-97000000</v>
       </c>
-      <c r="AH90" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI90" s="45">
-        <f>AA25</f>
-        <v>1760000000</v>
+      <c r="AH90" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI90" s="64">
+        <f>AA27</f>
+        <v>386000000</v>
       </c>
     </row>
     <row r="91" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11230,12 +11639,12 @@
       <c r="AA91" s="1">
         <v>-320000000</v>
       </c>
-      <c r="AH91" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI91" s="47">
-        <f>AI89/AI90</f>
-        <v>0.21931818181818183</v>
+      <c r="AH91" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI91" s="64">
+        <f>AA25</f>
+        <v>1760000000</v>
       </c>
     </row>
     <row r="92" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11320,15 +11729,15 @@
       <c r="AA92" s="1">
         <v>438000000</v>
       </c>
-      <c r="AH92" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI92" s="47">
-        <f>AI88*(1-AI91)</f>
-        <v>2.2934948492941625E-2</v>
+      <c r="AH92" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI92" s="65">
+        <f>AI90/AI91</f>
+        <v>0.21931818181818183</v>
       </c>
     </row>
-    <row r="93" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -11410,12 +11819,15 @@
       <c r="AA93" s="1">
         <v>-262000000</v>
       </c>
-      <c r="AH93" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI93" s="68"/>
+      <c r="AH93" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI93" s="65">
+        <f>AI89*(1-AI92)</f>
+        <v>2.2934948492941625E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:35" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -11497,13 +11909,10 @@
       <c r="AA94" s="10">
         <v>-262000000</v>
       </c>
-      <c r="AH94" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI94" s="48">
-        <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
-      </c>
+      <c r="AH94" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI94" s="71"/>
     </row>
     <row r="95" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -11587,12 +11996,12 @@
       <c r="AA95" s="1">
         <v>-626000000</v>
       </c>
-      <c r="AH95" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI95" s="49" cm="1">
-        <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>1.3055000000000001</v>
+      <c r="AH95" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI95" s="66">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.7350000000000003E-2</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11677,11 +12086,12 @@
       <c r="AA96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH96" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI96" s="48">
-        <v>8.4000000000000005E-2</v>
+      <c r="AH96" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI96" s="67" cm="1">
+        <f t="array" ref="AI96">_FV(A1,"Beta")</f>
+        <v>1.2835000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11766,15 +12176,14 @@
       <c r="AA97" s="1">
         <v>-983000000</v>
       </c>
-      <c r="AH97" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI97" s="47">
-        <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>9.7295360000000011E-2</v>
+      <c r="AH97" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI97" s="66">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -11856,12 +12265,15 @@
       <c r="AA98" s="1">
         <v>-515000000</v>
       </c>
-      <c r="AH98" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI98" s="68"/>
+      <c r="AH98" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI98" s="65">
+        <f>(AI95)+((AI96)*(AI97-AI95))</f>
+        <v>9.439027500000001E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:35" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -11943,13 +12355,10 @@
       <c r="AA99" s="1">
         <v>-1208000000</v>
       </c>
-      <c r="AH99" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI99" s="45">
-        <f>AI86+AI87</f>
-        <v>7863000000</v>
-      </c>
+      <c r="AH99" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI99" s="71"/>
     </row>
     <row r="100" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -12033,12 +12442,12 @@
       <c r="AA100" s="10">
         <v>-1208000000</v>
       </c>
-      <c r="AH100" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI100" s="47">
-        <f>AI99/AI103</f>
-        <v>0.11204990331901703</v>
+      <c r="AH100" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI100" s="64">
+        <f>AI87+AI88</f>
+        <v>7863000000</v>
       </c>
     </row>
     <row r="101" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12123,12 +12532,12 @@
       <c r="AA101" s="1">
         <v>-46000000</v>
       </c>
-      <c r="AH101" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI101" s="50" cm="1">
-        <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>62311090000</v>
+      <c r="AH101" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI101" s="65">
+        <f>AI100/AI104</f>
+        <v>0.12008216533968721</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12213,12 +12622,12 @@
       <c r="AA102" s="10">
         <v>-42000000</v>
       </c>
-      <c r="AH102" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI102" s="47">
-        <f>AI101/AI103</f>
-        <v>0.88795009668098301</v>
+      <c r="AH102" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI102" s="55" cm="1">
+        <f t="array" ref="AI102">_FV(A1,"Market cap",TRUE)</f>
+        <v>57617165000</v>
       </c>
     </row>
     <row r="103" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12303,15 +12712,15 @@
       <c r="AA103" s="1">
         <v>1811000000</v>
       </c>
-      <c r="AH103" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI103" s="51">
-        <f>AI99+AI101</f>
-        <v>70174090000</v>
+      <c r="AH103" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI103" s="65">
+        <f>AI102/AI104</f>
+        <v>0.87991783466031281</v>
       </c>
     </row>
-    <row r="104" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:35" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -12393,279 +12802,293 @@
       <c r="AA104" s="11">
         <v>1769000000</v>
       </c>
-      <c r="AH104" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI104" s="68"/>
+      <c r="AB104" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC104" s="73"/>
+      <c r="AD104" s="73"/>
+      <c r="AE104" s="73"/>
+      <c r="AF104" s="73"/>
+      <c r="AG104" s="46"/>
+      <c r="AH104" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI104" s="68">
+        <f>AI100+AI102</f>
+        <v>65480165000</v>
+      </c>
     </row>
-    <row r="105" spans="1:35" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C105" s="1">
-        <f t="shared" ref="C105:Z105" si="62">((C22*(1-$AI$91))+C77+C88+C81)</f>
+      <c r="C105" s="44">
+        <f t="shared" ref="C105:AA105" si="62">((C22*(1-$AI$92))+C77+C88+C81)</f>
         <v>377391931.81818181</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="44">
         <f t="shared" si="62"/>
         <v>376805340.90909088</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" s="44">
         <f t="shared" si="62"/>
         <v>124026704.54545453</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F105" s="44">
         <f t="shared" si="62"/>
         <v>387201704.5454545</v>
       </c>
-      <c r="G105" s="1">
+      <c r="G105" s="44">
         <f t="shared" si="62"/>
         <v>421584886.36363631</v>
       </c>
-      <c r="H105" s="1">
+      <c r="H105" s="44">
         <f t="shared" si="62"/>
         <v>559970113.63636363</v>
       </c>
-      <c r="I105" s="1">
+      <c r="I105" s="44">
         <f t="shared" si="62"/>
         <v>611528181.81818175</v>
       </c>
-      <c r="J105" s="1">
+      <c r="J105" s="44">
         <f t="shared" si="62"/>
         <v>742328636.36363637</v>
       </c>
-      <c r="K105" s="1">
+      <c r="K105" s="44">
         <f t="shared" si="62"/>
         <v>1163468750</v>
       </c>
-      <c r="L105" s="1">
+      <c r="L105" s="44">
         <f t="shared" si="62"/>
         <v>1067351136.3636364</v>
       </c>
-      <c r="M105" s="1">
+      <c r="M105" s="44">
         <f t="shared" si="62"/>
         <v>546206136.36363637</v>
       </c>
-      <c r="N105" s="1">
+      <c r="N105" s="44">
         <f t="shared" si="62"/>
         <v>613918750</v>
       </c>
-      <c r="O105" s="1">
+      <c r="O105" s="44">
         <f t="shared" si="62"/>
         <v>625610909.090909</v>
       </c>
-      <c r="P105" s="1">
+      <c r="P105" s="44">
         <f t="shared" si="62"/>
         <v>798457727.27272725</v>
       </c>
-      <c r="Q105" s="1">
+      <c r="Q105" s="44">
         <f t="shared" si="62"/>
         <v>835706590.90909088</v>
       </c>
-      <c r="R105" s="1">
+      <c r="R105" s="44">
         <f t="shared" si="62"/>
         <v>1050829772.7272726</v>
       </c>
-      <c r="S105" s="1">
+      <c r="S105" s="44">
         <f t="shared" si="62"/>
         <v>1119379204.5454545</v>
       </c>
-      <c r="T105" s="1">
+      <c r="T105" s="44">
         <f t="shared" si="62"/>
         <v>1211256590.9090908</v>
       </c>
-      <c r="U105" s="1">
+      <c r="U105" s="44">
         <f t="shared" si="62"/>
         <v>1459721477.2727273</v>
       </c>
-      <c r="V105" s="1">
+      <c r="V105" s="44">
         <f t="shared" si="62"/>
         <v>1021131477.2727273</v>
       </c>
-      <c r="W105" s="1">
+      <c r="W105" s="44">
         <f t="shared" si="62"/>
         <v>1477769772.7272727</v>
       </c>
-      <c r="X105" s="1">
+      <c r="X105" s="44">
         <f t="shared" si="62"/>
         <v>1586802272.7272727</v>
       </c>
-      <c r="Y105" s="1">
+      <c r="Y105" s="44">
         <f t="shared" si="62"/>
         <v>2019268181.8181818</v>
       </c>
-      <c r="Z105" s="1">
+      <c r="Z105" s="44">
         <f t="shared" si="62"/>
         <v>1938259090.909091</v>
       </c>
-      <c r="AA105" s="1">
-        <f>((AA22*(1-$AI$91))+AA77+AA88+AA81)</f>
+      <c r="AA105" s="44">
+        <f t="shared" si="62"/>
         <v>1091023863.6363635</v>
       </c>
-      <c r="AB105" s="31">
-        <f>AA105*(1+$AI$106)</f>
-        <v>1180307723.1663246</v>
-      </c>
-      <c r="AC105" s="31">
-        <f t="shared" ref="AC105:AF105" si="63">AB105*(1+$AI$106)</f>
-        <v>1276898120.9290946</v>
-      </c>
-      <c r="AD105" s="31">
-        <f t="shared" si="63"/>
-        <v>1381392986.956244</v>
-      </c>
-      <c r="AE105" s="31">
-        <f t="shared" si="63"/>
-        <v>1494439182.8405373</v>
-      </c>
-      <c r="AF105" s="31">
-        <f t="shared" si="63"/>
-        <v>1616736506.0467291</v>
-      </c>
-      <c r="AG105" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH105" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI105" s="53">
-        <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>8.8963283079871794E-2</v>
-      </c>
+      <c r="AB105" s="47">
+        <f>AA105*(1+$AI$107)</f>
+        <v>1181078866.602715</v>
+      </c>
+      <c r="AC105" s="47">
+        <f>AB105*(1+$AI$107)</f>
+        <v>1278567165.787024</v>
+      </c>
+      <c r="AD105" s="47">
+        <f>AC105*(1+$AI$107)</f>
+        <v>1384102318.3581748</v>
+      </c>
+      <c r="AE105" s="47">
+        <f>AD105*(1+$AI$107)</f>
+        <v>1498348525.5584817</v>
+      </c>
+      <c r="AF105" s="47">
+        <f>AE105*(1+$AI$107)</f>
+        <v>1622024812.953393</v>
+      </c>
+      <c r="AG105" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH105" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI105" s="71"/>
     </row>
-    <row r="106" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>158</v>
       </c>
       <c r="B106" s="1"/>
-      <c r="C106" s="15" t="e">
+      <c r="C106" s="45" t="e">
         <f>(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D106" s="15">
+      <c r="D106" s="45">
         <f>(D107/C107)-1</f>
         <v>4.8117154811715412E-2</v>
       </c>
-      <c r="E106" s="15">
+      <c r="E106" s="45">
         <f>(E107/D107)-1</f>
         <v>-0.81603459747172324</v>
       </c>
-      <c r="F106" s="15">
+      <c r="F106" s="45">
         <f>(F107/E107)-1</f>
         <v>4.2712477396021704</v>
       </c>
-      <c r="G106" s="15">
+      <c r="G106" s="45">
         <f>(G107/F107)-1</f>
         <v>8.6449399656946868E-2</v>
       </c>
-      <c r="H106" s="15">
-        <f t="shared" ref="H106:T106" si="64">(H107/G107)-1</f>
+      <c r="H106" s="45">
+        <f t="shared" ref="H106:T106" si="63">(H107/G107)-1</f>
         <v>0.42248184401641931</v>
       </c>
-      <c r="I106" s="15">
-        <f t="shared" si="64"/>
+      <c r="I106" s="45">
+        <f t="shared" si="63"/>
         <v>0.10632630410654831</v>
       </c>
-      <c r="J106" s="15">
-        <f t="shared" si="64"/>
+      <c r="J106" s="45">
+        <f t="shared" si="63"/>
         <v>0.3575441412520064</v>
       </c>
-      <c r="K106" s="15">
-        <f t="shared" si="64"/>
+      <c r="K106" s="45">
+        <f t="shared" si="63"/>
         <v>6.6213420041383309E-2</v>
       </c>
-      <c r="L106" s="15">
-        <f t="shared" si="64"/>
+      <c r="L106" s="45">
+        <f t="shared" si="63"/>
         <v>0.11200443581924047</v>
       </c>
-      <c r="M106" s="15">
-        <f t="shared" si="64"/>
+      <c r="M106" s="45">
+        <f t="shared" si="63"/>
         <v>-0.43866866118175019</v>
       </c>
-      <c r="N106" s="15">
-        <f t="shared" si="64"/>
+      <c r="N106" s="45">
+        <f t="shared" si="63"/>
         <v>0.22829224961137018</v>
       </c>
-      <c r="O106" s="15">
-        <f t="shared" si="64"/>
+      <c r="O106" s="45">
+        <f t="shared" si="63"/>
         <v>3.832941601880302E-2</v>
       </c>
-      <c r="P106" s="15">
-        <f t="shared" si="64"/>
+      <c r="P106" s="45">
+        <f t="shared" si="63"/>
         <v>0.28086366010795749</v>
       </c>
-      <c r="Q106" s="15">
-        <f t="shared" si="64"/>
+      <c r="Q106" s="45">
+        <f t="shared" si="63"/>
         <v>5.7775965198477497E-2</v>
       </c>
-      <c r="R106" s="15">
-        <f t="shared" si="64"/>
+      <c r="R106" s="45">
+        <f t="shared" si="63"/>
         <v>0.13674334918390962</v>
       </c>
-      <c r="S106" s="15">
-        <f t="shared" si="64"/>
+      <c r="S106" s="45">
+        <f t="shared" si="63"/>
         <v>6.72696438665914E-2</v>
       </c>
-      <c r="T106" s="15">
-        <f t="shared" si="64"/>
+      <c r="T106" s="45">
+        <f t="shared" si="63"/>
         <v>0.12775423728813551</v>
       </c>
-      <c r="U106" s="15">
-        <f t="shared" ref="U106" si="65">(U107/T107)-1</f>
+      <c r="U106" s="45">
+        <f t="shared" ref="U106" si="64">(U107/T107)-1</f>
         <v>4.3490512868683107E-2</v>
       </c>
-      <c r="V106" s="15">
-        <f t="shared" ref="V106" si="66">(V107/U107)-1</f>
+      <c r="V106" s="45">
+        <f t="shared" ref="V106" si="65">(V107/U107)-1</f>
         <v>-0.40867764875326307</v>
       </c>
-      <c r="W106" s="15">
-        <f t="shared" ref="W106" si="67">(W107/V107)-1</f>
+      <c r="W106" s="45">
+        <f t="shared" ref="W106" si="66">(W107/V107)-1</f>
         <v>1.0866189678794336</v>
       </c>
-      <c r="X106" s="15">
-        <f t="shared" ref="X106" si="68">(X107/W107)-1</f>
+      <c r="X106" s="45">
+        <f t="shared" ref="X106" si="67">(X107/W107)-1</f>
         <v>0.1716641132268184</v>
       </c>
-      <c r="Y106" s="15">
-        <f t="shared" ref="Y106" si="69">(Y107/X107)-1</f>
+      <c r="Y106" s="45">
+        <f t="shared" ref="Y106" si="68">(Y107/X107)-1</f>
         <v>0.27210460772104605</v>
       </c>
-      <c r="Z106" s="15">
-        <f t="shared" ref="Z106" si="70">(Z107/Y107)-1</f>
+      <c r="Z106" s="45">
+        <f t="shared" ref="Z106" si="69">(Z107/Y107)-1</f>
         <v>-8.6637298091042592E-2</v>
       </c>
-      <c r="AA106" s="15">
-        <f t="shared" ref="AA106" si="71">(AA107/Z107)-1</f>
+      <c r="AA106" s="45">
+        <f t="shared" ref="AA106" si="70">(AA107/Z107)-1</f>
         <v>-0.210075026795284</v>
       </c>
-      <c r="AB106" s="38">
-        <v>1842000000</v>
-      </c>
-      <c r="AC106" s="38">
-        <v>2151000000</v>
-      </c>
-      <c r="AD106" s="38">
-        <v>2465000000</v>
-      </c>
-      <c r="AE106" s="38">
-        <v>2723000000</v>
-      </c>
-      <c r="AF106" s="38">
-        <v>2987000000</v>
-      </c>
-      <c r="AG106" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH106" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI106" s="55">
-        <f>(SUM(AB4:AF4)/5)</f>
-        <v>8.1834928186061612E-2</v>
+      <c r="AB106" s="49">
+        <f>(AB107/AA105)-1</f>
+        <v>0.74331658856724458</v>
+      </c>
+      <c r="AC106" s="49">
+        <f>(AC107/AB107)-1</f>
+        <v>0.16140904311251325</v>
+      </c>
+      <c r="AD106" s="49">
+        <f>(AD107/AC107)-1</f>
+        <v>0.11815301041195103</v>
+      </c>
+      <c r="AE106" s="49">
+        <f>(AE107/AD107)-1</f>
+        <v>5.42510121457489E-2</v>
+      </c>
+      <c r="AF106" s="49">
+        <f>(AF107/AE107)-1</f>
+        <v>8.6405529953917037E-2</v>
+      </c>
+      <c r="AG106" s="50">
+        <f>SUM(AB106:AF106)/5</f>
+        <v>0.23270703683827496</v>
+      </c>
+      <c r="AH106" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI106" s="39">
+        <f>(AI101*AI93)+(AI103*AI98)</f>
+        <v>8.5809764667978086E-2</v>
       </c>
     </row>
     <row r="107" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="32" t="s">
+      <c r="A107" s="27" t="s">
         <v>159</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -12743,154 +13166,182 @@
       <c r="Z107" s="1">
         <v>1866000000</v>
       </c>
-      <c r="AA107" s="1">
+      <c r="AA107" s="44">
         <v>1474000000</v>
       </c>
-      <c r="AB107" s="28"/>
-      <c r="AC107" s="28"/>
-      <c r="AD107" s="28"/>
-      <c r="AE107" s="28"/>
-      <c r="AF107" s="39">
-        <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>47866132765.212288</v>
-      </c>
-      <c r="AG107" s="29" t="s">
+      <c r="AB107" s="51">
+        <v>1902000000</v>
+      </c>
+      <c r="AC107" s="51">
+        <v>2209000000</v>
+      </c>
+      <c r="AD107" s="51">
+        <v>2470000000</v>
+      </c>
+      <c r="AE107" s="51">
+        <v>2604000000</v>
+      </c>
+      <c r="AF107" s="51">
+        <v>2829000000</v>
+      </c>
+      <c r="AG107" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH107" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI107" s="40">
+        <f>(SUM(AB4:AF4)/5)</f>
+        <v>8.2541735307419997E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:35" ht="19" x14ac:dyDescent="0.2">
+      <c r="AB108" s="48"/>
+      <c r="AC108" s="48"/>
+      <c r="AD108" s="48"/>
+      <c r="AE108" s="48"/>
+      <c r="AF108" s="52">
+        <f>AF107*(1+AI108)/(AI109-AI108)</f>
+        <v>47685187006.273193</v>
+      </c>
+      <c r="AG108" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="AH107" s="56" t="s">
+      <c r="AH108" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="AI107" s="57">
+      <c r="AI108" s="41">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB108" s="39">
-        <f t="shared" ref="AB108:AD108" si="72">AB107+AB106</f>
-        <v>1842000000</v>
-      </c>
-      <c r="AC108" s="39">
-        <f t="shared" si="72"/>
-        <v>2151000000</v>
-      </c>
-      <c r="AD108" s="39">
-        <f t="shared" si="72"/>
-        <v>2465000000</v>
-      </c>
-      <c r="AE108" s="39">
-        <f>AE107+AE106</f>
-        <v>2723000000</v>
-      </c>
-      <c r="AF108" s="39">
-        <f>AF107+AF106</f>
-        <v>50853132765.212288</v>
-      </c>
-      <c r="AG108" s="29" t="s">
+    <row r="109" spans="1:35" ht="19" x14ac:dyDescent="0.2">
+      <c r="AB109" s="52">
+        <f t="shared" ref="AB109:AD109" si="71">AB108+AB107</f>
+        <v>1902000000</v>
+      </c>
+      <c r="AC109" s="52">
+        <f t="shared" si="71"/>
+        <v>2209000000</v>
+      </c>
+      <c r="AD109" s="52">
+        <f t="shared" si="71"/>
+        <v>2470000000</v>
+      </c>
+      <c r="AE109" s="52">
+        <f>AE108+AE107</f>
+        <v>2604000000</v>
+      </c>
+      <c r="AF109" s="52">
+        <f>AF108+AF107</f>
+        <v>50514187006.273193</v>
+      </c>
+      <c r="AG109" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="AH108" s="58" t="s">
+      <c r="AH109" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="AI108" s="55">
-        <f>AI105</f>
-        <v>8.8963283079871794E-2</v>
+      <c r="AI109" s="40">
+        <f>AI106</f>
+        <v>8.5809764667978086E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB109" s="65" t="s">
+    <row r="110" spans="1:35" ht="19" x14ac:dyDescent="0.2">
+      <c r="AB110" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="AC109" s="65"/>
+      <c r="AC110" s="72"/>
     </row>
-    <row r="110" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB110" s="59" t="s">
+    <row r="111" spans="1:35" ht="20" x14ac:dyDescent="0.2">
+      <c r="AB111" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="AC110" s="50">
-        <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>40559365191.598091</v>
+      <c r="AC111" s="55">
+        <f>NPV(AI109,AB109,AC109,AD109,AE109,AF109)</f>
+        <v>40897325038.48008</v>
       </c>
     </row>
-    <row r="111" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB111" s="59" t="s">
+    <row r="112" spans="1:35" ht="20" x14ac:dyDescent="0.2">
+      <c r="AB112" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="AC111" s="50">
+      <c r="AC112" s="55">
         <f>AA40</f>
         <v>1859000000</v>
       </c>
     </row>
-    <row r="112" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB112" s="59" t="s">
+    <row r="113" spans="28:29" ht="20" x14ac:dyDescent="0.2">
+      <c r="AB113" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="AC112" s="50">
-        <f>AI99</f>
+      <c r="AC113" s="55">
+        <f>AI100</f>
         <v>7863000000</v>
       </c>
     </row>
-    <row r="113" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB113" s="59" t="s">
+    <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.2">
+      <c r="AB114" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="AC113" s="50">
-        <f>AC110+AC111-AC112</f>
-        <v>34555365191.598091</v>
+      <c r="AC114" s="55">
+        <f>AC111+AC112-AC113</f>
+        <v>34893325038.48008</v>
       </c>
     </row>
-    <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB114" s="59" t="s">
+    <row r="115" spans="28:29" ht="20" x14ac:dyDescent="0.2">
+      <c r="AB115" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="AC114" s="59">
+      <c r="AC115" s="54">
         <f>AA34*(1+(5*AG16))</f>
         <v>181741902.6270411</v>
       </c>
     </row>
-    <row r="115" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB115" s="60" t="s">
+    <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.2">
+      <c r="AB116" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="AC115" s="61">
-        <f>AC113/AC114</f>
-        <v>190.13427664235672</v>
+      <c r="AC116" s="57">
+        <f>AC114/AC115</f>
+        <v>191.99383595144752</v>
       </c>
     </row>
-    <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB116" s="59" t="s">
+    <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.2">
+      <c r="AB117" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="AC116" s="62" cm="1">
-        <f t="array" ref="AC116">_FV(A1,"Price")</f>
-        <v>339.57</v>
+      <c r="AC117" s="58" cm="1">
+        <f t="array" ref="AC117">_FV(A1,"Price")</f>
+        <v>313.99</v>
       </c>
     </row>
-    <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB117" s="60" t="s">
+    <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.2">
+      <c r="AB118" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="AC117" s="63">
-        <f>AC115/AC116-1</f>
-        <v>-0.44007339681845647</v>
+      <c r="AC118" s="59">
+        <f>AC116/AC117-1</f>
+        <v>-0.38853518917338925</v>
       </c>
     </row>
-    <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB118" s="60" t="s">
+    <row r="119" spans="28:29" ht="20" x14ac:dyDescent="0.2">
+      <c r="AB119" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="AC118" s="64" t="str">
-        <f>IF(AC115&gt;AC116,"BUY","SELL")</f>
+      <c r="AC119" s="60" t="str">
+        <f>IF(AC116&gt;AC117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AB109:AC109"/>
-    <mergeCell ref="AH83:AI83"/>
+  <mergeCells count="7">
     <mergeCell ref="AH84:AI84"/>
-    <mergeCell ref="AH93:AI93"/>
-    <mergeCell ref="AH98:AI98"/>
-    <mergeCell ref="AH104:AI104"/>
+    <mergeCell ref="AH85:AI85"/>
+    <mergeCell ref="AB110:AC110"/>
+    <mergeCell ref="AB104:AF104"/>
+    <mergeCell ref="AH105:AI105"/>
+    <mergeCell ref="AH99:AI99"/>
+    <mergeCell ref="AH94:AI94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/MCO" display="ROIC.AI | MCO" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -12947,7 +13398,7 @@
     <hyperlink ref="AA36" r:id="rId52" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="AA74" r:id="rId53" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
     <hyperlink ref="AB1" r:id="rId54" display="https://finbox.com/NYSE:MCO/explorer/revenue_proj" xr:uid="{17567B22-E74E-2648-ACC3-80B2C97B0554}"/>
-    <hyperlink ref="AG106" r:id="rId55" xr:uid="{7B384A68-96CF-314D-B1DC-32D3023BD76B}"/>
+    <hyperlink ref="AG107" r:id="rId55" xr:uid="{7B384A68-96CF-314D-B1DC-32D3023BD76B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId56"/>
